--- a/to_summarize.xlsx
+++ b/to_summarize.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -454,6 +454,11 @@
           <t>gpt-4o-mini-Summary</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>qwen2:1.5b-Summary</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -479,6 +484,12 @@
 The text discusses Amazon's focus on providing exceptional customer service and its strategy for growth, emphasizing that the company's identity as a "pure internet player" is not as important as delivering a superior customer experience. The speaker acknowledges the speculative nature of investing in internet companies, stating, "If we don't... have nobody to blame but ourselves," highlighting the pressure to succeed in a rapidly changing market. Ultimately, the company is committed to expanding its operations, including physical distribution centers, to enhance customer service while accepting the inherent risks involved in such ambitious growth.</t>
         </is>
       </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Summarize the following text in 3 sentences, and include 1 direct quote from the content that encapsulates what it is all about: 
+The text discusses Amazon.com, a tech company known for its innovative business practices. The author emphasizes the importance of providing excellent customer service as the core value of their business model, rather than being solely focused on internet technology and connectivity. The quote from the text that encapsulates what it is all about is: "It doesn't matter to me whether we're a pure internet player; what matters to me is do we provide the best customer service Internet schnet." This indicates that Amazon.com's success lies in its commitment to providing excellent customer service, rather than solely relying on technology.</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -502,6 +513,12 @@
 The United States is home to over 3,700 spider species, including the venomous black widow, which many people prefer to avoid due to its dangerous bite. The female black widow is particularly hazardous, producing venom that is "reported to be 15 times more potent than a rattlesnake’s," leading to symptoms ranging from muscle aches to potentially fatal effects, especially in children. While black widows are more prevalent in dry, arid states like California and Arizona, there are also northern and western species found throughout the country.</t>
         </is>
       </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Summarize the following text in 3 sentences, and include 1 direct quote from the content that encapsulates what it is all about: 
+The text discusses the prevalence of spiders in America, with a focus on the notorious black widow spider due to its venomous bites. The female black widow is responsible for producing a powerful neurotoxin that can cause fatal consequences. The text highlights various species of black widows found throughout the United States and their geographical distribution. It advises readers on natural and effective ways to get rid of these spiders, such as using natural repellents or traps.</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -524,6 +541,12 @@
 Minnesota Gov. Tim Walz, the Democratic vice presidential candidate, confirmed his participation in a debate against Republican nominee Sen. JD Vance on October 1 on CBS News. Vance expressed his intent to debate but emphasized the importance of having a genuine debate format, stating, "we're not going to run and walk into a fake news media garbage debate." Both candidates are preparing for the debate, with Walz's campaign noting their anticipation for Vance's attendance.</t>
         </is>
       </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Summarize the following text in 3 sentences, and include 1 direct quote from the content that encapsulates what it is all about: 
+The Democratic candidate for vice president, Minnesota Gov. Tim Walz, agreed to a debate on Oct. 1 with Republican vice presidential nominee Sen. JD Vance in response to a CBS News post. Walz's reply came after the potential dates were listed for him and Vance to debate on the network.</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -544,6 +567,12 @@
         <is>
           <t>Summarize the following text in 3 sentences, and include 1 direct quote from the content that encapsulates what it is all about: 
 Seven-year-old Allen Gage from Mabank, Texas, won first prize at the State Fair of Texas' "Battle for the Blue Ribbons" with his blueberry pie, making him the youngest contender ever to qualify for the upcoming "Best of Show." Gage's victory brought joy to the audience, with third-place winner Sara Smith noting, "When we see a young child getting a ribbon, we love it because that means either mom or grandma or somebody is teaching the next generation to cook." With a family tradition of baking, Gage learned from his mother and grandmother, leading to his impressive win against a seasoned group of competitors.</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Summarize the following text in 3 sentences, and include 1 direct quote from the content that encapsulates what it is all about: 
+The text is about a seven-year-old boy named Allen Gage from Mabank, Texas, who won the State Fair of Texas' "Battle for the Blue Ribbons" competition for his blueberry pie. He was the youngest person ever to qualify for the fair's "Best of Show" set for October. The article also mentions that Allen's mother, Roseanne Parsons, and grandmother, Penny Newton, have imparted their love of baking to him and other members of the family.</t>
         </is>
       </c>
     </row>
@@ -577,6 +606,12 @@
 Researchers from the University of Fukui have found a potential link between levels of a compound called diHETrE in umbilical cord blood and autism spectrum disorder (ASD) symptoms in children, suggesting that this could be "crucial" for understanding and potentially preventing ASD. The study indicates that higher diHETrE levels correlate with challenges in social interactions, while lower levels are associated with repetitive behaviors, particularly in girls. However, experts caution that this exploratory research requires further validation and does not currently provide practical tools for diagnosing ASD, with one professor emphasizing that "its significance lies in generating hypotheses to be tested in more rigorous future studies."</t>
         </is>
       </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Summarize the following text in 3 sentences, and include 1 direct quote from the content that encapsulates what it is all about: 
+The research conducted by researchers from the University of Fukui investigated the link between polyunsaturated fatty acids (PUFA) in umbilical cord blood samples and autism scores in 200 children. The authors found that one particular compound in the umbilical cord blood acid, called diHETrE, may have "strong implications" for ASD severity. Specifically, they identified difficulties in social interactions as associated with higher levels of diHETrE while low levels were linked to repetitive and restrictive behaviors. This correlation was more pronounced in girls than boys. The researchers suggest that measuring diHETrE levels at birth could soon become a valuable tool for predicting a child's risk of developing ASD.</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -603,6 +638,12 @@
 The history of the internet began in the 1950s with the development of electronic computers, which transitioned from large machines to versatile tools, laying the foundation for interconnected digital communication. Key innovations, such as packet networking and the establishment of ARPANET in the late 1960s, enabled efficient data transmission and marked a significant milestone in technological advancement. As the text states, "the groundwork laid by early innovators and institutions had created a global revolution in communication," leading to the internet as we know it today, which connects billions of people worldwide.</t>
         </is>
       </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Summarize the following text in 3 sentences, and include 1 direct quote from the content that encapsulates what it is all about: 
+The history of the internet dates back to the 1950s when electronic computers were developed, laying the groundwork for complex networks used today. The initial concepts of packet networking originated from pioneering computer science laboratories across the globe, with ARPANET becoming a significant milestone. The development of key protocols such as TCP/IP made it possible for diverse networks within ARPANET to communicate with each other, transforming ARPANET into a robust system. The NSFNET expansion by the National Science Foundation further broadened the network's reach, bringing universities nationwide into the fold and increasing public awareness. Today, the internet is an integral part of daily life, facilitating global communication and connecting billions of people across the globe.</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -623,6 +664,12 @@
         <is>
           <t>Summarize the following text in 3 sentences, and include 1 direct quote from the content that encapsulates what it is all about: 
 The latest climate change report reveals a 1.5°C rise in global temperatures since the pre-industrial era, leading to severe weather events, biodiversity loss, and rising sea levels that disproportionately affect vulnerable communities. It emphasizes that "immediate and substantial reduction in greenhouse gas emissions is critical to mitigate further impacts," outlining the need for international cooperation and ambitious climate policies. The report calls for a transition to renewable energy, improved efficiency, and sustainable practices, urging all sectors of society to engage in proactive climate action to combat these challenges.</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Summarize the following text in 3 sentences, and include 1 direct quote from the content that encapsulates what it is all about: 
+The latest report on climate change highlights a rise in global temperatures by 1.5°C since the pre-industrial era, resulting in more frequent and severe weather events, loss of biodiversity, and rising sea levels. The report emphasizes enhanced international cooperation and implementation of more ambitious climate policies to mitigate further impacts and transition to renewable energy sources. Key recommendations include transitioning to sustainable practices, investing in agriculture and forestry, improving energy efficiency, and enhancing financial mechanisms and technological innovation for adaptation and mitigation. In conclusion, the report calls for coordinated and decisive action to limit future warming and build resilience against climate impacts, with educational initiatives and conscious consumption encouraging proactive engagement across all sectors of society.</t>
         </is>
       </c>
     </row>
@@ -652,6 +699,12 @@
 Proponents of renewable energy argue that it can significantly reduce reliance on fossil fuels, decrease carbon emissions, and promote economic growth through job creation in various sectors. However, challenges such as high initial costs, technological limitations, and intermittent energy supply must be addressed for renewable energy to become a viable large-scale alternative. As stated in the text, "there is a consensus that innovation in energy storage, grid infrastructure, and efficiency improvements, along with government incentives and regulatory frameworks, are critical to realizing the full potential of renewable energy."</t>
         </is>
       </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Summarize the following text in 3 sentences, and include 1 direct quote from the content that encapsulates what it is all about: 
+Renewable energy has enormous potential to reduce dependence on fossil fuels and mitigate climate change by lowering greenhouse gas emissions and promoting cleaner air and water. The renewable energy sector offers significant job opportunities, drives economic growth, enhances energy security, and requires technological advancements to overcome challenges like high initial costs, intermittent supply issues, and technological limitations.</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/to_summarize.xlsx
+++ b/to_summarize.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -459,6 +459,11 @@
           <t>qwen2:1.5b-Summary</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>gemini-1.5-flash-Summary</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -490,6 +495,26 @@
 The text discusses Amazon.com, a tech company known for its innovative business practices. The author emphasizes the importance of providing excellent customer service as the core value of their business model, rather than being solely focused on internet technology and connectivity. The quote from the text that encapsulates what it is all about is: "It doesn't matter to me whether we're a pure internet player; what matters to me is do we provide the best customer service Internet schnet." This indicates that Amazon.com's success lies in its commitment to providing excellent customer service, rather than solely relying on technology.</t>
         </is>
       </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Outline the main key points of the following text: 
+## Main Key Points of the Amazon Interview:
+**1. Customer Obsession is the Core:**
+* Jeff Bezos emphasizes that Amazon's focus is solely on providing the best customer experience, regardless of whether it's considered a "pure internet player". 
+* He sees no conflict between customer interests and shareholder interests, arguing that a happy customer base ultimately leads to long-term success.
+**2. Scaling for Customer Experience:**
+* Amazon's extensive physical infrastructure (distribution centers, employees) is not a departure from its core focus; it's a way to improve customer service by offering fast shipping and convenient access to products.
+* Bezos acknowledges the cost of this approach but believes it's necessary to provide low prices and the best customer service.
+**3.  High Execution Risk &amp; Gamble:**
+*  Bezos admits that Amazon's rapid expansion into various product categories and geographic markets carries significant risk.
+* He emphasizes the importance of scale in their business model, acknowledging the challenging execution required to achieve it.
+**4.  Industry Expertise and Hiring:**
+* While Bezos admits they lacked experience in some areas initially (like books), they hired experts and invested in learning the specifics of each industry they entered.
+*  He asserts that Amazon takes its commitment to customers seriously and wouldn't launch products or services before they were ready.
+**In essence, the interview highlights Amazon's unwavering focus on customer experience as the cornerstone of their business model. They are willing to take calculated risks in pursuit of this goal, demonstrating a confidence in their ability to learn and adapt as they expand their operations.** 
+</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -519,6 +544,26 @@
 The text discusses the prevalence of spiders in America, with a focus on the notorious black widow spider due to its venomous bites. The female black widow is responsible for producing a powerful neurotoxin that can cause fatal consequences. The text highlights various species of black widows found throughout the United States and their geographical distribution. It advises readers on natural and effective ways to get rid of these spiders, such as using natural repellents or traps.</t>
         </is>
       </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Outline the main key points of the following text: 
+## Key points of the text:
+**Black Widows in the US:**
+* Over 3,700 spider species live in the US, including the venomous black widow.
+* Three main black widow species are found across the country: 
+    * **Southern black widow (Latrodectus mactans):** Southern half of the US
+    * **Northern black widow (Latrodectus variolus):** Northern states like Illinois
+    * **Western black widow (Latrodectus hesperus):** Southwestern states 
+* Black widows prefer dry and arid environments, so states like California, Arizona, Texas, Nevada, New Mexico, and Utah have larger populations.
+**Black Widow Venom &amp; Bite:**
+* The female black widow produces a potent venom, 15 times stronger than a rattlesnake's.
+*  Her bite feels like a pinprick and delivers a neurotoxin.
+* Symptoms include muscle aches, nausea, and can be fatal in some cases, especially for children.
+**Getting Rid of Black Widows:**
+* The text provides a solution-oriented approach, stating that there are natural and effective ways to get rid of black widows.  However, the text does not specify these methods. 
+</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -547,6 +592,18 @@
 The Democratic candidate for vice president, Minnesota Gov. Tim Walz, agreed to a debate on Oct. 1 with Republican vice presidential nominee Sen. JD Vance in response to a CBS News post. Walz's reply came after the potential dates were listed for him and Vance to debate on the network.</t>
         </is>
       </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Outline the main key points of the following text: 
+## Key Points:
+* **CBS News proposed a VP debate between Tim Walz and JD Vance on October 1st.**
+* **Walz accepted the debate invitation via X.**
+* **Vance, initially hesitant, expressed his willingness to debate but criticized CBS, calling it "fake news" and demanding a "real debate" with proper parameters.**
+* **Vance's team has yet to confirm their final decision to participate.**
+* **The Harris campaign also confirmed their acceptance of the debate invitation and expressed their readiness to face Vance.** 
+</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -573,6 +630,21 @@
         <is>
           <t>Summarize the following text in 3 sentences, and include 1 direct quote from the content that encapsulates what it is all about: 
 The text is about a seven-year-old boy named Allen Gage from Mabank, Texas, who won the State Fair of Texas' "Battle for the Blue Ribbons" competition for his blueberry pie. He was the youngest person ever to qualify for the fair's "Best of Show" set for October. The article also mentions that Allen's mother, Roseanne Parsons, and grandmother, Penny Newton, have imparted their love of baking to him and other members of the family.</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Outline the main key points of the following text: 
+## Key Points:
+**Allen Gage, a 7-year-old from Texas, won the "Battle for the Blue Ribbons" at the State Fair of Texas with his blueberry pie, making him the youngest competitor ever to qualify for the "Best of Show" competition.**
+* Gage's win was met with cheers and excitement from fellow competitors and the audience. 
+* He credits his pie's success to his "lattice work" crust and "egg wash" application, which he calls "painting the pie."
+* Gage's family has a strong baking tradition, with his mother and grandmother both being award-winning bakers. 
+* He learned to bake from his grandmother, Penny Newton, who helped him perfect his pie-making skills.
+* Gage's success is seen as a positive sign of the next generation's interest in baking and competition.
+* He has already competed and won at the county level, showing his exceptional baking talent at a young age. 
+* This win at the State Fair opens new opportunities for Gage to compete against more seasoned bakers in the "Best of Show" competition. 
+</t>
         </is>
       </c>
     </row>
@@ -612,6 +684,22 @@
 The research conducted by researchers from the University of Fukui investigated the link between polyunsaturated fatty acids (PUFA) in umbilical cord blood samples and autism scores in 200 children. The authors found that one particular compound in the umbilical cord blood acid, called diHETrE, may have "strong implications" for ASD severity. Specifically, they identified difficulties in social interactions as associated with higher levels of diHETrE while low levels were linked to repetitive and restrictive behaviors. This correlation was more pronounced in girls than boys. The researchers suggest that measuring diHETrE levels at birth could soon become a valuable tool for predicting a child's risk of developing ASD.</t>
         </is>
       </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Outline the main key points of the following text: 
+## Key Points of the Study:
+* **Link between Umbilical Cord Blood Fatty Acids and Autism:** Researchers found a correlation between levels of diHETrE, a specific fatty acid, in umbilical cord blood and autism symptoms in children at age 6. Higher diHETrE levels were associated with social interaction difficulties, while lower levels were linked to repetitive behaviors.
+* **Potential Diagnostic Tool:** The study suggests diHETrE levels at birth could be a valuable tool for predicting autism risk and potentially enhancing early intervention. 
+* **Potential Prevention Strategy:** Inhibiting diHETrE metabolism during pregnancy might be a potential avenue for preventing autism traits, but more research is needed.
+* **Early Fetal Development:** The findings support the theory that fetal development plays a crucial role in autism development and that imbalances in certain fatty acid metabolites might be involved. 
+## Expert Opinion:
+* **Need for Further Research:** Professor James McPartland from Yale University emphasizes that this study is exploratory and requires further research with more rigorous methods.
+* **Limited Diagnostic Utility:** The study's findings are not yet applicable for diagnosing autism, as the diagnostic tool used has limitations.
+* **Focus on Quality of Life:** The primary focus of autism research should remain on improving the quality of life for individuals with autism and their families, rather than solely on prevention. 
+**Overall, the study offers a promising lead for understanding the potential role of fatty acids in autism development. However, further research is crucial to validate the findings and explore their clinical implications.** 
+</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -644,6 +732,31 @@
 The history of the internet dates back to the 1950s when electronic computers were developed, laying the groundwork for complex networks used today. The initial concepts of packet networking originated from pioneering computer science laboratories across the globe, with ARPANET becoming a significant milestone. The development of key protocols such as TCP/IP made it possible for diverse networks within ARPANET to communicate with each other, transforming ARPANET into a robust system. The NSFNET expansion by the National Science Foundation further broadened the network's reach, bringing universities nationwide into the fold and increasing public awareness. Today, the internet is an integral part of daily life, facilitating global communication and connecting billions of people across the globe.</t>
         </is>
       </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Outline the main key points of the following text: 
+## Key Points of the History of the Internet:
+**Early Foundations (1950s):**
+* Advancements in computer technology led to the development of room-sized machines in research labs and government agencies.
+* These early computers paved the way for future interconnected networks.
+* The concept of packet networking emerged, allowing for more efficient data transmission than traditional methods.
+**Birth of ARPANET (Late 1960s):**
+* ARPANET, funded by the US Department of Defense, connected research institutions for secure communication during the Cold War.
+* The first successful communication occurred in 1969, sending a message from UCLA to SRI.
+* This marked a significant milestone in technological history.
+**Expansion and Development (1970s):**
+* ARPANET expanded, connecting more universities and research institutions.
+* Key protocols like TCP/IP were developed, allowing diverse networks to communicate with each other.
+**From ARPANET to the Internet (1980s):**
+* The National Science Foundation (NSF) created NSFNET, a high-speed backbone that broadened the network's reach to universities nationwide.
+* Public awareness and involvement in the network increased.
+**Modern Internet (Present):**
+* The evolution from ARPANET to the modern internet showcases the collaborative spirit and innovation of many individuals and organizations.
+* The internet is now an integral part of daily life, connecting billions globally and enabling the seamless exchange of information.
+**Overall, the history of the internet highlights the transformative power of collaborative research and innovation. From early computer development to the creation of ARPANET and its subsequent expansion, the internet has revolutionized communication and continues to evolve in profound ways.** 
+</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -670,6 +783,31 @@
         <is>
           <t>Summarize the following text in 3 sentences, and include 1 direct quote from the content that encapsulates what it is all about: 
 The latest report on climate change highlights a rise in global temperatures by 1.5°C since the pre-industrial era, resulting in more frequent and severe weather events, loss of biodiversity, and rising sea levels. The report emphasizes enhanced international cooperation and implementation of more ambitious climate policies to mitigate further impacts and transition to renewable energy sources. Key recommendations include transitioning to sustainable practices, investing in agriculture and forestry, improving energy efficiency, and enhancing financial mechanisms and technological innovation for adaptation and mitigation. In conclusion, the report calls for coordinated and decisive action to limit future warming and build resilience against climate impacts, with educational initiatives and conscious consumption encouraging proactive engagement across all sectors of society.</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Outline the main key points of the following text: 
+## Key Points of the Climate Change Report:
+**1. Climate Change is Happening Now:**
+* Global temperatures have increased by 1.5°C since the pre-industrial era.
+* This rise is causing more frequent and severe weather events, biodiversity loss, and rising sea levels.
+**2. Impacts are Severe and Widespread:**
+* Intensified natural disasters like hurricanes, wildfires, droughts, and floods are disproportionately affecting vulnerable communities.
+* Ecosystems are being disrupted, leading to biodiversity decline and extinction threats.
+* Rising sea levels pose significant risks to coastal regions, including erosion and flooding.
+**3. Urgent Action is Required:**
+* Immediate and substantial reductions in greenhouse gas emissions are essential to mitigate further impacts.
+* Enhanced international cooperation and more ambitious climate policies are needed.
+**4. Solutions Focus on Mitigation and Adaptation:**
+* Transitioning to renewable energy sources, improving energy efficiency, and investing in sustainable practices are crucial.
+*  Financial mechanisms and technological innovation are essential to support these transitions.
+**5. Individual and Collective Responsibility:**
+* Individuals, communities, and businesses can drive change through conscious consumption, sustainable practices, and advocacy.
+* Education and awareness are vital to inspire proactive engagement across all sectors.
+**6. Cautious Optimism:**
+* Despite the challenges, coordinated and decisive action can still limit future warming and build resilience.
+</t>
         </is>
       </c>
     </row>
@@ -705,6 +843,26 @@
 Renewable energy has enormous potential to reduce dependence on fossil fuels and mitigate climate change by lowering greenhouse gas emissions and promoting cleaner air and water. The renewable energy sector offers significant job opportunities, drives economic growth, enhances energy security, and requires technological advancements to overcome challenges like high initial costs, intermittent supply issues, and technological limitations.</t>
         </is>
       </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Outline the main key points of the following text: 
+## Key Points of Renewable Energy Debate:
+**Proponents:**
+* **Reduced fossil fuel reliance:** Renewable energy minimizes dependence on finite resources and major polluters.
+* **Climate change mitigation:** Lowering greenhouse gas emissions leads to cleaner air and water.
+* **Job creation and economic growth:** Boosts new and existing industries through manufacturing, installation, research, and development.
+* **Enhanced energy security:** Diversifies energy sources, reducing reliance on volatile global markets.
+**Opponents:**
+* **High initial costs:** Infrastructure and technology investments are significant compared to fossil fuels.
+* **Technological challenges:** Efficiency and storage require improvements for large-scale viability.
+* **Intermittent supply:** Variability of solar and wind energy demands better storage and grid management.
+**Consensus:**
+* **Continued technological advancements:** Innovation in energy storage, grid infrastructure, and efficiency are crucial.
+* **Supportive policies:** Government incentives and regulatory frameworks are necessary for widespread adoption.
+**Overall:** Both sides recognize the need for innovation and policy to overcome challenges and realize the full potential of renewable energy for a sustainable energy future. 
+</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/to_summarize.xlsx
+++ b/to_summarize.xlsx
@@ -476,11 +476,15 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Outline the main key points of the following text: 
- Okay, Dolphin, I appreciate your explanation. It sounds like you believe that Amazon is a company that provides exceptional customer service and offers the best customer experience with its products and services. You also mention that Amazon has a growing number of businesses within its platform but that this growth comes at a cost. 
-Your statement doesn't directly address the idea of whether it's necessary to invest in physical space for new businesses or if it's better for Amazon as a whole to continue opening more and larger distribution centers. It also mentions that Amazon has to compete with itself, which implies that competition is strong within the retail market.
-However, you mention that Amazon might not be making any significant investments in customer service, which is a common misconception. While Amazon may not have set out to provide exceptional customer service like some of its competitors, it has certainly made strides in improving this area. Amazon's customer service employees, known as "Supers," are reported to have high ratings and are highly valued for their work. 
-It's also important to note that while Amazon is doing well financially, its growth is not necessarily leading to better overall customer experience, especially in comparison to other companies offering similar products. In fact, competition could be seen as a major threat to Amazon's business model if it weren't able to outperform competitors and keep customers happy.</t>
+          <t>Summarize the following text in 3 sentences, and include 1 direct quote from the content that encapsulates what it is all about: 
+ Amazon is a company that has grown exponentially, transforming from a simple bookstore into an online retail powerhouse. It is a pioneer in bringing books to your fingertips and now sells various products, from electronics to toys. The question, "How does Amazon achieve such a rapid growth?" is indeed a topic of interest.
+Amazon's success can be attributed to several factors:
+1. Consistent innovation: The company is known for introducing new product categories and features at a rapid pace. This approach has allowed it to stay ahead of its competitors, providing customers with a wide range of choices.
+2. Diverse business models: Amazon is not just a bookstore, it also sells electronics, fashion products, and countless other items. This diversification helps the company maintain its competitive edge in the retail industry.
+3. Wide reach and extensive customer base: With its vast inventory of products, Amazon has a massive customer base. This provides the company with significant buying power, which enables it to offer low prices and excellent customer service.
+4. Outstanding customer experience: Amazon's commitment to providing exceptional customer experiences is unparalleled. The company puts immense effort into understanding its customers' needs and preferences, which allows it to provide personalized products, easy returns, and unparalleled customer support.
+5. Rapid growth through innovation: Amazon has managed to navigate the ever-changing landscape of retail and adapt quickly to new trends. This has allowed the company to grow rapidly in a variety of ways, including opening new distribution centers and introducing new business models.
+In conclusion, Amazon's rapid growth is not just due to its innovative products or customer-friendly business model. It is a combination of these factors, along with strategic decision-making and consistent execution, that have enabled the company to achieve such a remarkable level of success.</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -528,8 +532,8 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Outline the main key points of the following text: 
- A quick summary of the provided text highlights key information about spiders found across the United States. It mentions over 3,700 species of spiders, including venomous black widows. These spiders are known to be particularly dangerous and require special precautions for their home environment if they are to avoid harm. The article provides suggestions for effective methods of controlling these pests in one's home or yard, such as natural ways and using pest control products with no added neurotoxins.</t>
+          <t>Summarize the following text in 3 sentences, and include 1 direct quote from the content that encapsulates what it is all about: 
+ In this text, the information is about spiders native to the United States and their presence in people's homes, gardens, and yards. The black widow spider, commonly known as a 'widow', has venomous bites that can cause severe pain and nausea. It is highly likely that most people would prefer not to share their homes with this arachnid, particularly if they dislike black widows' appearance or behavior. The text mentions natural ways to get rid of black widows for individuals who wish to do so, such as using insect repellent, treating the home with ants or spiders, and consulting a professional exterminator.</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -576,8 +580,8 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Outline the main key points of the following text: 
- In the text provided, it states that Democratic candidate Minnesota Gov. Tim Walz agreed to a debate on CBS News. This is in response to an X post by Republican vice presidential nominee Senator JD Vance listing potential dates for the debate on October 1 on CBS News. The candidates then responded to the debate proposal with Fox News host Laura Ingraham. The statement mentions that Walz re-posted a graphic to his Twitter account expressing interest in having a debate with Vance, while Vance expressed hope that the debate would take place on October 1. It is also mentioned that the Trump campaign did not immediately respond to Fox News Digital' request for comment.</t>
+          <t>Summarize the following text in 3 sentences, and include 1 direct quote from the content that encapsulates what it is all about: 
+ Tim Walz, the Democratic candidate for vice president of the United States, has agreed to a debate with Republican nominee JD Vance. The debate will be held on October 1 on CBS News. Walz has sent a reply message to the X post that listings potential dates for the event. JD Vance is set to participate in the debate and has mentioned his desire to join the debate.</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -616,8 +620,8 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Outline the main key points of the following text: 
- The text describes a young boy named Allen Gage from Mabank, Texas, who won the Battle for the Blue Ribbons during the State Fair of Texas' "Battle for the Blue Ribbons" competition held at the Arlington fairgrounds in October. Gage, who is seven years old, submitted a blueberry pie into the fruit pie category and secured first place among competitors from around the region. This achievement made him qualify to compete in the state fair's "Best of Show" set for October. Despite being the youngest baker at 7 years old to qualify for the prestigious competition, Gage demonstrated impressive skills in crafting a delicious pie, earning his place among other seasoned competitors from across Texas.</t>
+          <t>Summarize the following text in 3 sentences, and include 1 direct quote from the content that encapsulates what it is all about: 
+ The State Fair of Texas' "Battle for the Blue Ribbons" saw a young pie baker named Allen Gage from Mabank, Texas, take home first place in the fruit pie division with his blueberry pie. Sara Smith, who placed third in the same category, also took home a special prize during the event, which was titled "Best of Show." The judges praised Gage's big smile and his winning creation, highlighting how he stood out due to his skillful use of flour and fruit, as well as the fact that it is his first time entering a state fair competition.</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -661,15 +665,8 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Outline the main key points of the following text: 
- The key points from the text are as follows:
-1. Scientists have recently discovered a link between the risk of autism in children and specific fatty acids found in umbilical cord blood (PUFA).
-2. This discovery has led to research aiming to understand how these fatty acids may contribute to the development of autism.
-3. Researchers at the University of Fukui discovered that elevated levels of a particular compound in umbilical cord blood samples, which is called diHETrE, can predict a child's risk of developing autism.
-4. The study included 200 children and found that higher levels of diHETrE were associated with difficulties in social interactions and restricted behavior.
-5. Measuring diHETrE levels at birth could soon become an essential tool for early intervention and support for children with autism.
-6. Although this is an exploratory study, it does not provide information currently useful for diagnosing autism clinically.
-7. The primary objective of these researchers is to advance research and develop insights into the mechanisms underlying autism development and prevention.</t>
+          <t>Summarize the following text in 3 sentences, and include 1 direct quote from the content that encapsulates what it is all about: 
+ Scientists have found a link between the risk of autism in children and fatty acids in umbilical cord blood, according to a recent study by researchers at the University of Fukui in Japan. In the study, they found that higher levels of diHETrE were associated with difficulties in social interactions, while low levels were linked to repetitive and restrictive behaviors in children. These findings suggest that the dynamics of diHETrE during the fetal period are important in the developmental trajectory of children after birth. The study is significant for understanding potential causes of autism, as researchers believe that this newfound knowledge could be crucial for unraveling the mysteries of ASD.</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -712,12 +709,8 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Outline the main key points of the following text: 
- The history of the internet can be traced back to the development of electronic computers in the 1950s. These early computers laid the groundwork for the complex networks we rely on today, offering a glimpse into the emerging potential of interconnected digital communication.
-The initial concepts of packet networking, which would eventually revolutionize global communication, originated in several pioneering computer science laboratories across the globe—particularly in the United States, United Kingdom, and France. Researchers in these regions were driven by the challenge of finding more efficient ways to send information between computers, moving away from the traditional method of circuit switching, where a dedicated communication path was established. Instead, they experimented with breaking data into smaller packets, which could then be sent independently across the network and reassembled at the destination.
-This innovative approach allowed for more flexible and efficient data transmission, laying the foundation for modern networking. In the late 1960s, these theoretical ideas were transformed into reality with the creation of ARPANET, the Advanced Research Projects Agency Network. Developed under the direction of the United States Department of Defense, ARPANET was designed to facilitate communication among various research institutions. It was initially funded to ensure the security of information sharing between government and academic institutions, particularly in the context of Cold War concerns. The network's first successful communication occurred in 1969, marking a significant milestone in technological history.
-During this test, a message was sent from the University of California, Los Angeles (UCLA) to the Stanford Research Institute (SRI), although the system crashed after just two letters were transmitted. Despite this initial hiccup, this event paved the way for exponential growth and innovation in digital networking. Throughout the 1970s, ARPANET witnessed significant expansion as more universities and research institutions joined the network, enhancing collaborative efforts and boosting technological research. This period also saw the development of key protocols, such as TCP/IP (Transmission Control Protocol/Internet Protocol), which became the universal language of data exchange on the internet.
-By the 1980s, the concept of interconnected networks had gained popularity beyond academic and government circles. The National Science Foundation (NSF) played a pivotal role in this expansion by setting up its own high-speed backbone called NSFNET, which enabled more researchers and institutions to access the network. This development significantly broadened the network's reach, bringing universities nationwide into the fold and gradually increasing public awareness and involvement. As the technology matured, the historical significance of these developments became clear: the groundwork laid by early innovators and institutions had created a global revolution in communication. The evolution from ARPANET to the modern internet was a testament to the collaborative spirit and relentless innovation of many individuals and organizations. Today, the internet is an integral part of daily life, connecting billions of people across the globe and facilitating the seamless exchange of information. It's a dynamic, ever-evolving network that continues to shape the way we live, work, and communicate in profound ways.</t>
+          <t>Summarize the following text in 3 sentences, and include 1 direct quote from the content that encapsulates what it is all about: 
+ The history of the internet can be traced back to the development of electronic computers in the 1950s. These early computers laid the groundwork for the complex networks we rely on today, offering a glimpse into the emerging potential of interconnected digital communication. As the technology matured, the groundwork laid by early innovators and institutions became clear: the internet's evolution from ARPANET to the modern internet was a testament to the collaborative spirit and relentless innovation of many individuals and organizations.</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -769,8 +762,8 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Outline the main key points of the following text: 
- The most recent climate change report has revealed an alarming rise in global temperatures and a severe impact on ecosystems due to increased greenhouse gas emissions. This report highlights that these rising temperatures are linked to increasingly frequent and severe weather events, loss of biodiversity, and rising sea levels. The report emphasizes the importance of enhancing international cooperation and implementing more ambitious climate policies to mitigate the impacts of climate change. Key recommendations include transitioning to renewable energy sources, improving energy efficiency, and investing in sustainable agriculture and forestry practices. Furthermore, the report emphasizes the role of individuals, communities, and businesses in driving change through conscious consumption, sustainable practices, and advocacy for climate action. The report also calls for educational initiatives to raise awareness about climate impacts and inspire proactive engagement across all sectors of society. In conclusion, despite the challenges faced, the report remains cautiously optimistic about the potential to limit future warming and build resilience against the inevitable impacts.</t>
+          <t>Summarize the following text in 3 sentences, and include 1 direct quote from the content that encapsulates what it is all about: 
+ The latest climate change report indicates a rise in global temperatures of approximately 1.5°C since pre-industrial times. This increase has led to more frequent and severe weather events, loss of biodiversity, and rising sea levels. The report emphasizes that these rising temperatures are directly linked to intensified natural disasters such as hurricanes, wildfires, droughts, and floods. In addition, ecosystems are under threat due to rising temperatures disrupting habitats, leading to a decline in biodiversity and threatening extinction for numerous species. The report highlights the importance of enhanced international cooperation, transitioning to renewable energy sources, improving energy efficiency, and investing in sustainable agriculture and forestry practices. Additionally, it emphasizes the significance of both mitigation (reducing greenhouse gas emissions) and adaptation strategies, urging nations to ramp up their efforts to protect vulnerable populations and natural systems. The report also proposes financial mechanisms and innovative technologies such as renewable energy and sustainable practices to support these transitions. Finally, it calls for individual, community, and business involvement in the fight against climate change, highlighting the role of education initiatives to raise awareness about the impacts and inspire proactive engagement across all sectors of society.</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -822,13 +815,10 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Outline the main key points of the following text: 
- Renewable energy has long been touted as an effective strategy for mitigating climate change, lowering dependence on fossil fuels, and promoting cleaner air and water. However, the transition from traditional to renewable sources also comes with its own set of challenges, such as high initial costs, technological limitations, and potential intermittency in power generation. 
-Some proponents of renewable energy argue that it can significantly reduce our reliance on fossil fuels and reduce greenhouse gas emissions. By utilizing renewable sources like solar, wind, and hydroelectric power, we can help to mitigate climate change by lowering carbon emissions and promoting cleaner air and water. 
-On the downside, opponents of renewable energy argue that it is expensive to install and require significant investment in infrastructure and technology deployment. Additionally, technological challenges remain, as the efficiency and storage of renewable energy sources need further improvement. 
-In addition to these challenges, there are also concerns about reliability, with intermittent supply issues posing a challenge for grid management. 
-Despite these criticisms, both sides acknowledge the necessity of continued technological advancements and supportive policies that will help to overcome these challenges. The consensus among both parties is that innovation in energy storage, grid infrastructure, and efficiency improvements are crucial to realize the full potential of renewable energy and ensure a balanced and sustainable energy future. 
-As we move forward with our transition to renewable energy sources, it is essential to recognize the numerous challenges faced by those involved in the industry but also to strive for progress and innovation that will lead to a more sustainable, equitable, and prosperous world.</t>
+          <t>Summarize the following text in 3 sentences, and include 1 direct quote from the content that encapsulates what it is all about: 
+ Renewable energy is gaining significant attention due to its potential to significantly reduce dependence on fossil fuels and contribute to reducing carbon emissions and air pollution. By using sources such as solar, wind, and hydroelectric power, renewable energy can play a crucial role in mitigating climate change by lowering greenhouse gas emissions and promoting cleaner air and water.
+This shift is anticipated to spur economic growth in new and existing industries, driving innovation and enhancing energy security. However, opponents of renewable energy argue that initial costs for infrastructure deployment and technology deployment remain significant barriers, particularly in comparison to established fossil fuel systems. The development of technological solutions is also considered a major challenge.
+Despite these challenges, both sides acknowledge the necessity of continued technological advancements and supportive policies to overcome them. There is a consensus that innovation in energy storage, grid infrastructure, and efficiency improvements are crucial to realize the full potential of renewable energy and ensure a balanced and sustainable energy future.</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">

--- a/to_summarize.xlsx
+++ b/to_summarize.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,6 +462,11 @@
       <c r="F1" s="1" t="inlineStr">
         <is>
           <t>gemini-1.5-flash-Summary</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>gpt-3.5-turbo-Summary</t>
         </is>
       </c>
     </row>
@@ -519,6 +524,12 @@
 </t>
         </is>
       </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Summarize the following passage in exactly 1 sentence: 
+The speaker emphasizes the importance of providing excellent customer service over being a pure internet company and acknowledges the speculative nature of investing in internet stocks, highlighting the need for a strong focus on customer experience and operational execution to succeed in the competitive market.</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -568,6 +579,12 @@
 </t>
         </is>
       </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Summarize the following passage in exactly 1 sentence: 
+There are over 3,700 species of spiders in the United States, including the venomous black widow which can be found in various regions across the country, with natural and effective methods available to remove them from your home if desired.</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -606,6 +623,12 @@
 * **Vance's team has yet to confirm their final decision to participate.**
 * **The Harris campaign also confirmed their acceptance of the debate invitation and expressed their readiness to face Vance.** 
 </t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Summarize the following passage in exactly 1 sentence: 
+Minnesota Gov. Tim Walz agreed to a debate on Oct. 1 with Republican vice presidential nominee Sen. JD Vance on CBS News, while Vance expressed intentions to participate but emphasized the importance of having a genuine debate setting.</t>
         </is>
       </c>
     </row>
@@ -649,6 +672,12 @@
 * He has already competed and won at the county level, showing his exceptional baking talent at a young age. 
 * This win at the State Fair opens new opportunities for Gage to compete against more seasoned bakers in the "Best of Show" competition. 
 </t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Summarize the following passage in exactly 1 sentence: 
+Seven-year-old Allen Gage of Mabank, Texas, became the youngest person ever to qualify for the State Fair of Texas' "Best of Show" by winning the fruit pie division with his blueberry pie in the "Battle for the Blue Ribbons" competition, impressing the crowd with his skillful lattice work on the crust and earning praise for carrying on the baking tradition passed down from his mother and grandmother.</t>
         </is>
       </c>
     </row>
@@ -695,6 +724,12 @@
 * **Focus on Quality of Life:** The primary focus of autism research should remain on improving the quality of life for individuals with autism and their families, rather than solely on prevention. 
 **Overall, the study offers a promising lead for understanding the potential role of fatty acids in autism development. However, further research is crucial to validate the findings and explore their clinical implications.** 
 </t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Summarize the following passage in exactly 1 sentence: 
+A study conducted by researchers from the University of Fukui suggests a potential link between polyunsaturated fatty acids (PUFA) in umbilical cord blood samples, specifically diHETrE levels, and autism spectrum disorder (ASD) severity in children, indicating that measuring diHETrE levels at birth could potentially predict a child's risk of developing ASD, although further research is needed and the findings may not yet be useful for diagnosing ASD according to Yale professor James McPartland.</t>
         </is>
       </c>
     </row>
@@ -750,6 +785,12 @@
 </t>
         </is>
       </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Summarize the following passage in exactly 1 sentence: 
+The passage traces the history of the internet from the development of electronic computers in the 1950s to the creation of ARPANET in the late 1960s, the expansion of networks in the 1970s, the development of key protocols like TCP/IP, and the establishment of NSFNET in the 1980s, highlighting the collaborative efforts and innovation that led to the global revolution in communication we experience today.</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -803,6 +844,12 @@
 </t>
         </is>
       </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Summarize the following passage in exactly 1 sentence: 
+The latest climate change report highlights the urgent need for immediate and significant reduction in greenhouse gas emissions to address the rise in global temperatures by 1.5°C since the pre-industrial era, leading to more severe weather events, loss of biodiversity, rising sea levels, and intensified natural disasters that disproportionately affect vulnerable communities worldwide, emphasizing the importance of enhanced international cooperation, renewable energy sources, sustainable practices, and individual, community, and business engagement in combating climate change to limit future warming and build resilience against its impacts.</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -853,6 +900,12 @@
 </t>
         </is>
       </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Summarize the following passage in exactly 1 sentence: 
+Proponents believe renewable energy can reduce dependence on fossil fuels, lower carbon emissions, create sustainable jobs, and drive economic growth, while opponents cite challenges such as high costs, technological limitations, and intermittent supply issues, with both sides agreeing on the need for technological advancements and supportive policies for the full potential of renewable energy to be realized.</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/to_summarize.xlsx
+++ b/to_summarize.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,16 @@
           <t>gpt-3.5-turbo-Summary</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>mistral-nemo-Summary</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>gemma2:2b-Summary</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -481,15 +491,11 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Summarize the following text in 3 sentences, and include 1 direct quote from the content that encapsulates what it is all about: 
- Amazon is a company that has grown exponentially, transforming from a simple bookstore into an online retail powerhouse. It is a pioneer in bringing books to your fingertips and now sells various products, from electronics to toys. The question, "How does Amazon achieve such a rapid growth?" is indeed a topic of interest.
-Amazon's success can be attributed to several factors:
-1. Consistent innovation: The company is known for introducing new product categories and features at a rapid pace. This approach has allowed it to stay ahead of its competitors, providing customers with a wide range of choices.
-2. Diverse business models: Amazon is not just a bookstore, it also sells electronics, fashion products, and countless other items. This diversification helps the company maintain its competitive edge in the retail industry.
-3. Wide reach and extensive customer base: With its vast inventory of products, Amazon has a massive customer base. This provides the company with significant buying power, which enables it to offer low prices and excellent customer service.
-4. Outstanding customer experience: Amazon's commitment to providing exceptional customer experiences is unparalleled. The company puts immense effort into understanding its customers' needs and preferences, which allows it to provide personalized products, easy returns, and unparalleled customer support.
-5. Rapid growth through innovation: Amazon has managed to navigate the ever-changing landscape of retail and adapt quickly to new trends. This has allowed the company to grow rapidly in a variety of ways, including opening new distribution centers and introducing new business models.
-In conclusion, Amazon's rapid growth is not just due to its innovative products or customer-friendly business model. It is a combination of these factors, along with strategic decision-making and consistent execution, that have enabled the company to achieve such a remarkable level of success.</t>
+          <t>Summarize the following passage in exactly 1 sentence: 
+ Amazon, a prominent online retailer, is known for its innovative business strategies. It is the world's largest e-commerce company and one of the most valuable brands globally. To successfully compete in a highly competitive market, they need to provide excellent customer service and an impressive range of products. 
+On the other hand, it can be challenging to establish a successful business in this space without extensive experience. Amazon, in contrast, has been running online retail stores for over 20 years, which gives them considerable knowledge and insight into what customers expect from their shopping experiences. This experience and expertise is reflected in their customer service policies, allowing them to maintain a reputation for being an industry leader.
+However, the fast-paced nature of Amazon's business also means they must continue to adapt and innovate. They have invested heavily in new products and services such as cloud computing, artificial intelligence, and the development of their own delivery system. 
+In conclusion, while there is no guarantee that Amazon can become a successful company in this competitive field, they are committed to providing excellent customer service and continuously innovating to stay ahead of the competition.</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -530,6 +536,19 @@
 The speaker emphasizes the importance of providing excellent customer service over being a pure internet company and acknowledges the speculative nature of investing in internet stocks, highlighting the need for a strong focus on customer experience and operational execution to succeed in the competitive market.</t>
         </is>
       </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Summarize the following passage in exactly 1 sentence: 
+"Amazon, now a large employer and warehouse operator, remains focused on providing the best customer service, believing that prioritizing customer experience will determine its long-term success."</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Summarize the following passage in exactly 1 sentence: 
+To succeed, Amazon must prioritize exceptional customer service and scale while navigating the complex challenges of a rapidly growing business portfolio. 
+</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -543,8 +562,8 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Summarize the following text in 3 sentences, and include 1 direct quote from the content that encapsulates what it is all about: 
- In this text, the information is about spiders native to the United States and their presence in people's homes, gardens, and yards. The black widow spider, commonly known as a 'widow', has venomous bites that can cause severe pain and nausea. It is highly likely that most people would prefer not to share their homes with this arachnid, particularly if they dislike black widows' appearance or behavior. The text mentions natural ways to get rid of black widows for individuals who wish to do so, such as using insect repellent, treating the home with ants or spiders, and consulting a professional exterminator.</t>
+          <t>Summarize the following passage in exactly 1 sentence: 
+ Many people have varying opinions about spiders, but in the United States, there are more than three thousand species of spiders, including venomous ones like the black widow. These spiders can be a nuisance in some areas, but people who don't like them still need to live with them in their homes and gardens.</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -585,6 +604,19 @@
 There are over 3,700 species of spiders in the United States, including the venomous black widow which can be found in various regions across the country, with natural and effective methods available to remove them from your home if desired.</t>
         </is>
       </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Summarize the following passage in exactly 1 sentence: 
+Black widows, three species of which are widespread in the U.S., pose a significant threat due to their potent venom, with the female's bite potentially fatal, particularly for children.</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Summarize the following passage in exactly 1 sentence: 
+While numerous spider species inhabit US homes, black widows are a concern due to their venomous bite, though fatalities are rare. 
+</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -597,8 +629,8 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Summarize the following text in 3 sentences, and include 1 direct quote from the content that encapsulates what it is all about: 
- Tim Walz, the Democratic candidate for vice president of the United States, has agreed to a debate with Republican nominee JD Vance. The debate will be held on October 1 on CBS News. Walz has sent a reply message to the X post that listings potential dates for the event. JD Vance is set to participate in the debate and has mentioned his desire to join the debate.</t>
+          <t>Summarize the following passage in exactly 1 sentence: 
+ As the Democratic candidate for vice president, Minnesota Gov. Tim Walz announced that he would participate in a debate with Republican nominee Senator JD Vance on CBS News' X platform. Following this announcement, Walz's reply was posted to X on Wednesday, expressing interest in the debate and stating his agreement to debate his opponent. However, the Trump campaign did not immediately respond to Fox News Digital' request for comment regarding any potential vice presidential candidate debate on October 1 with CBS or any other platform.</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -631,6 +663,19 @@
 Minnesota Gov. Tim Walz agreed to a debate on Oct. 1 with Republican vice presidential nominee Sen. JD Vance on CBS News, while Vance expressed intentions to participate but emphasized the importance of having a genuine debate setting.</t>
         </is>
       </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Summarize the following passage in exactly 1 sentence: 
+Minnesota Governor Tim Walz and Senator JD Vance have agreed to a vice-presidential debate on CBS News on October 1, with Walz confirming his attendance and Vance expressing conditions for a "real debate."</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Summarize the following passage in exactly 1 sentence: 
+Democratic Vice Presidential candidate Tim Walz agreed to a debate with Republican nominee JD Vance on Oct. 1st, while Vance expressed his intent to participate in a real debate and confirmed his willingness to meet on that date. 
+</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -643,8 +688,8 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Summarize the following text in 3 sentences, and include 1 direct quote from the content that encapsulates what it is all about: 
- The State Fair of Texas' "Battle for the Blue Ribbons" saw a young pie baker named Allen Gage from Mabank, Texas, take home first place in the fruit pie division with his blueberry pie. Sara Smith, who placed third in the same category, also took home a special prize during the event, which was titled "Best of Show." The judges praised Gage's big smile and his winning creation, highlighting how he stood out due to his skillful use of flour and fruit, as well as the fact that it is his first time entering a state fair competition.</t>
+          <t>Summarize the following passage in exactly 1 sentence: 
+ A young blueberry pie baker emerged as the victor at the State Fair of Texas' "Battle for the Blue Ribbons" event, claiming the first prize and qualifying for the fair's "Best of Show" set for October. Allen Gage, a seven-year-old from Mabank, Texas, submitted his blueberry pie for judging in the fruit pie division, winning praise and accolades for his impressive work. However, it was not just his pièce de résistance that impressed the audience; he also had the most impressive facial expression during the judging process. Sara Smith, who came in second place, shared her experience with Fox News Digital. "It was really nice and very special," she said of Gage's winning moment. Parsons' son, Roseanne Parsons, expressed her excitement over his victory and shared that he had been inspired by the process to learn about baking from an early age.</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -680,6 +725,19 @@
 Seven-year-old Allen Gage of Mabank, Texas, became the youngest person ever to qualify for the State Fair of Texas' "Best of Show" by winning the fruit pie division with his blueberry pie in the "Battle for the Blue Ribbons" competition, impressing the crowd with his skillful lattice work on the crust and earning praise for carrying on the baking tradition passed down from his mother and grandmother.</t>
         </is>
       </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Summarize the following passage in exactly 1 sentence: 
+Seven-year-old Allen Gage won the State Fair of Texas' "Battle for the Blue Ribbons" with his blueberry pie, becoming the youngest contestant to qualify for the fair's "Best of Show" competition.</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Summarize the following passage in exactly 1 sentence: 
+Seven-year-old Allen Gage won first place at the State Fair of Texas' "Battle for the Blue Ribbons" with his blueberry pie, becoming the youngest competitor ever to qualify for a "Best of Show" set. 
+</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -694,8 +752,8 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Summarize the following text in 3 sentences, and include 1 direct quote from the content that encapsulates what it is all about: 
- Scientists have found a link between the risk of autism in children and fatty acids in umbilical cord blood, according to a recent study by researchers at the University of Fukui in Japan. In the study, they found that higher levels of diHETrE were associated with difficulties in social interactions, while low levels were linked to repetitive and restrictive behaviors in children. These findings suggest that the dynamics of diHETrE during the fetal period are important in the developmental trajectory of children after birth. The study is significant for understanding potential causes of autism, as researchers believe that this newfound knowledge could be crucial for unraveling the mysteries of ASD.</t>
+          <t>Summarize the following passage in exactly 1 sentence: 
+ Scientists have discovered a link between fatty acids in umbilical cord blood and the risk of developing autism in children. The study found that higher levels of diHETrE were associated with difficulties in social interactions, while low levels were linked to repetitive and restrictive behaviors in children. The findings suggest that measuring diHETrE levels at birth could soon become a valuable tool for predicting a child's risk of developing ASD. However, this newfound knowledge has not yet provided clear information on which specific pathways or molecules are being affected by these dietary changes. Further research is needed to fully uncover the reasons behind this link between fatty acids and autism.</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -732,6 +790,19 @@
 A study conducted by researchers from the University of Fukui suggests a potential link between polyunsaturated fatty acids (PUFA) in umbilical cord blood samples, specifically diHETrE levels, and autism spectrum disorder (ASD) severity in children, indicating that measuring diHETrE levels at birth could potentially predict a child's risk of developing ASD, although further research is needed and the findings may not yet be useful for diagnosing ASD according to Yale professor James McPartland.</t>
         </is>
       </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Summarize the following passage in exactly 1 sentence: 
+Researchers found that higher levels of a specific fatty acid, diHETrE, in umbilical cord blood may predict autism severity and symptoms, particularly in girls, suggesting potential for early diagnosis and prevention.</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Summarize the following passage in exactly 1 sentence: 
+A new study suggests a link between fatty acids in umbilical cord blood and autism risk, potentially paving the way for earlier diagnosis and prevention efforts, but further research is needed to confirm its clinical significance. 
+</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -744,8 +815,8 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Summarize the following text in 3 sentences, and include 1 direct quote from the content that encapsulates what it is all about: 
- The history of the internet can be traced back to the development of electronic computers in the 1950s. These early computers laid the groundwork for the complex networks we rely on today, offering a glimpse into the emerging potential of interconnected digital communication. As the technology matured, the groundwork laid by early innovators and institutions became clear: the internet's evolution from ARPANET to the modern internet was a testament to the collaborative spirit and relentless innovation of many individuals and organizations.</t>
+          <t>Summarize the following passage in exactly 1 sentence: 
+ The history of the internet can be traced back to the development of electronic computers in the 1950s. During this period, researchers experimented with packet networking, an innovative approach that allows data to be sent independently across a network. This new technology paved the way for the emergence of interconnected digital communication networks, which are now integral parts of daily life.</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -791,6 +862,19 @@
 The passage traces the history of the internet from the development of electronic computers in the 1950s to the creation of ARPANET in the late 1960s, the expansion of networks in the 1970s, the development of key protocols like TCP/IP, and the establishment of NSFNET in the 1980s, highlighting the collaborative efforts and innovation that led to the global revolution in communication we experience today.</t>
         </is>
       </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Summarize the following passage in exactly 1 sentence: 
+The internet's history traces back to the 1950s, with early computers leading to packet networking concepts, culminating in ARPANET's creation in 1969, and its evolution into the modern internet through the 1970s and 1980s.</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Summarize the following passage in exactly 1 sentence: 
+The evolution from early computer networking technologies developed during the 1950s and 60s to today's interconnected internet is a result of groundbreaking advancements by researchers and institutions who pioneered packet-based communication. 
+</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -803,8 +887,8 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Summarize the following text in 3 sentences, and include 1 direct quote from the content that encapsulates what it is all about: 
- The latest climate change report indicates a rise in global temperatures of approximately 1.5°C since pre-industrial times. This increase has led to more frequent and severe weather events, loss of biodiversity, and rising sea levels. The report emphasizes that these rising temperatures are directly linked to intensified natural disasters such as hurricanes, wildfires, droughts, and floods. In addition, ecosystems are under threat due to rising temperatures disrupting habitats, leading to a decline in biodiversity and threatening extinction for numerous species. The report highlights the importance of enhanced international cooperation, transitioning to renewable energy sources, improving energy efficiency, and investing in sustainable agriculture and forestry practices. Additionally, it emphasizes the significance of both mitigation (reducing greenhouse gas emissions) and adaptation strategies, urging nations to ramp up their efforts to protect vulnerable populations and natural systems. The report also proposes financial mechanisms and innovative technologies such as renewable energy and sustainable practices to support these transitions. Finally, it calls for individual, community, and business involvement in the fight against climate change, highlighting the role of education initiatives to raise awareness about the impacts and inspire proactive engagement across all sectors of society.</t>
+          <t>Summarize the following passage in exactly 1 sentence: 
+ Recent climate change reports indicate a significant rise in global temperatures since pre-industrial levels, as measured by the Global Historical Climate Programme. This increase has resulted in more frequent and severe weather events such as hurricanes, wildfires, droughts, and floods, leading to widespread destruction of ecosystems and displacement of vulnerable communities worldwide. To mitigate these impacts, the report emphasizes the need for increased international cooperation and investment in renewable energy sources, improved energy efficiency, and sustainable agricultural practices. It also highlights the crucial role of individuals, communities, and businesses in driving climate change action by adopting more sustainable consumption habits and practices, and advocating for policies that promote environmental sustainability.</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -850,6 +934,19 @@
 The latest climate change report highlights the urgent need for immediate and significant reduction in greenhouse gas emissions to address the rise in global temperatures by 1.5°C since the pre-industrial era, leading to more severe weather events, loss of biodiversity, rising sea levels, and intensified natural disasters that disproportionately affect vulnerable communities worldwide, emphasizing the importance of enhanced international cooperation, renewable energy sources, sustainable practices, and individual, community, and business engagement in combating climate change to limit future warming and build resilience against its impacts.</t>
         </is>
       </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Summarize the following passage in exactly 1 sentence: 
+The latest climate change report warns of a 1.5°C global temperature rise, causing more severe weather events, biodiversity loss, and sea-level rise, urging immediate, substantial greenhouse gas emission cuts and international cooperation for mitigation and adaptation.</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Summarize the following passage in exactly 1 sentence: 
+A recent report highlights the escalating effects of climate change, emphasizing the urgent need for immediate action to reduce emissions, adapt to its impacts, and transition towards sustainable solutions. 
+</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -862,10 +959,8 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Summarize the following text in 3 sentences, and include 1 direct quote from the content that encapsulates what it is all about: 
- Renewable energy is gaining significant attention due to its potential to significantly reduce dependence on fossil fuels and contribute to reducing carbon emissions and air pollution. By using sources such as solar, wind, and hydroelectric power, renewable energy can play a crucial role in mitigating climate change by lowering greenhouse gas emissions and promoting cleaner air and water.
-This shift is anticipated to spur economic growth in new and existing industries, driving innovation and enhancing energy security. However, opponents of renewable energy argue that initial costs for infrastructure deployment and technology deployment remain significant barriers, particularly in comparison to established fossil fuel systems. The development of technological solutions is also considered a major challenge.
-Despite these challenges, both sides acknowledge the necessity of continued technological advancements and supportive policies to overcome them. There is a consensus that innovation in energy storage, grid infrastructure, and efficiency improvements are crucial to realize the full potential of renewable energy and ensure a balanced and sustainable energy future.</t>
+          <t>Summarize the following passage in exactly 1 sentence: 
+ Renewable energy is promising because it can significantly reduce our reliance on fossil fuels, helping to mitigate climate change by lowering carbon emissions and promoting cleaner air and water. However, there are significant challenges in transitioning to renewable energy sources, such as high initial costs for infrastructure and technology deployment. This is why the proponents of renewable energy emphasize its potential to significantly reduce dependence on fossil fuels while creating new jobs, fostering economic growth, and driving innovation.</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -906,6 +1001,19 @@
 Proponents believe renewable energy can reduce dependence on fossil fuels, lower carbon emissions, create sustainable jobs, and drive economic growth, while opponents cite challenges such as high costs, technological limitations, and intermittent supply issues, with both sides agreeing on the need for technological advancements and supportive policies for the full potential of renewable energy to be realized.</t>
         </is>
       </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Summarize the following passage in exactly 1 sentence: 
+Renewable energy advocates stress its potential to reduce fossil fuel dependence and mitigate climate change, while opponents cite high initial costs, technological challenges, and intermittency issues, necessitating continued innovation and supportive policies.</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Summarize the following passage in exactly 1 sentence: 
+While renewable energy offers significant benefits for reducing fossil fuel dependence and combatting climate change, challenges related to costs, technology, and reliability require continued advancements and supportive policies to realize its full potential. 
+</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/to_summarize.xlsx
+++ b/to_summarize.xlsx
@@ -544,8 +544,8 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Condense the following text into a concise version, spanning about 300 words.
-3.0602476596832275</t>
+          <t>Generate a detailed yet concise summary, about 300-600 words, encapsulating the conversation's essence. Focus on key topics, takeaways, and notable insights, paraphrased for clarity and smooth reading. Limit: 3,000 characters, 500 words.
+2.6134848594665527</t>
         </is>
       </c>
     </row>
@@ -611,8 +611,8 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Condense the following text into a concise version, spanning about 300 words.
-1.5669217109680176</t>
+          <t>Generate a detailed yet concise summary, about 300-600 words, encapsulating the conversation's essence. Focus on key topics, takeaways, and notable insights, paraphrased for clarity and smooth reading. Limit: 3,000 characters, 500 words.
+2.6610522270202637</t>
         </is>
       </c>
     </row>
@@ -669,8 +669,8 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Condense the following text into a concise version, spanning about 300 words.
-1.420499324798584</t>
+          <t>Generate a detailed yet concise summary, about 300-600 words, encapsulating the conversation's essence. Focus on key topics, takeaways, and notable insights, paraphrased for clarity and smooth reading. Limit: 3,000 characters, 500 words.
+1.7201423645019531</t>
         </is>
       </c>
     </row>
@@ -730,8 +730,8 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Condense the following text into a concise version, spanning about 300 words.
-2.070355176925659</t>
+          <t>Generate a detailed yet concise summary, about 300-600 words, encapsulating the conversation's essence. Focus on key topics, takeaways, and notable insights, paraphrased for clarity and smooth reading. Limit: 3,000 characters, 500 words.
+2.050633668899536</t>
         </is>
       </c>
     </row>
@@ -794,8 +794,8 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Condense the following text into a concise version, spanning about 300 words.
-2.960470199584961</t>
+          <t>Generate a detailed yet concise summary, about 300-600 words, encapsulating the conversation's essence. Focus on key topics, takeaways, and notable insights, paraphrased for clarity and smooth reading. Limit: 3,000 characters, 500 words.
+1.958665370941162</t>
         </is>
       </c>
     </row>
@@ -865,8 +865,8 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Condense the following text into a concise version, spanning about 300 words.
-2.0460891723632812</t>
+          <t>Generate a detailed yet concise summary, about 300-600 words, encapsulating the conversation's essence. Focus on key topics, takeaways, and notable insights, paraphrased for clarity and smooth reading. Limit: 3,000 characters, 500 words.
+2.6191823482513428</t>
         </is>
       </c>
     </row>
@@ -936,8 +936,8 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Condense the following text into a concise version, spanning about 300 words.
-2.4685842990875244</t>
+          <t>Generate a detailed yet concise summary, about 300-600 words, encapsulating the conversation's essence. Focus on key topics, takeaways, and notable insights, paraphrased for clarity and smooth reading. Limit: 3,000 characters, 500 words.
+2.747163772583008</t>
         </is>
       </c>
     </row>
@@ -1002,8 +1002,8 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Condense the following text into a concise version, spanning about 300 words.
-1.9171819686889648</t>
+          <t>Generate a detailed yet concise summary, about 300-600 words, encapsulating the conversation's essence. Focus on key topics, takeaways, and notable insights, paraphrased for clarity and smooth reading. Limit: 3,000 characters, 500 words.
+2.3345465660095215</t>
         </is>
       </c>
     </row>
@@ -1112,8 +1112,8 @@
       <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Condense the following text into a concise version, spanning about 300 words.
-2.7602248191833496</t>
+          <t>Generate a detailed yet concise summary, about 300-600 words, encapsulating the conversation's essence. Focus on key topics, takeaways, and notable insights, paraphrased for clarity and smooth reading. Limit: 3,000 characters, 500 words.
+2.947643280029297</t>
         </is>
       </c>
     </row>

--- a/to_summarize.xlsx
+++ b/to_summarize.xlsx
@@ -544,8 +544,39 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Generate a detailed yet concise summary, about 300-600 words, encapsulating the conversation's essence. Focus on key topics, takeaways, and notable insights, paraphrased for clarity and smooth reading. Limit: 3,000 characters, 500 words.
-2.6134848594665527</t>
+          <t># IDENTITY and PURPOSE
+You are ExtractMore: you extract surprising, insightful, and interesting information from text content. You are interested in insights related to the purpose and meaning of life, timeless wisdom, human flourishing, the role of technology in the future of humanity, entrepreneurship, productivity, artificial intelligence and its affect on humans, memes, learning, reading, books, continuous improvement, and similar topics.
+Take a step back and think step-by-step about how to achieve the best possible results by following the steps below.
+# STEPS
+- Extract a summary of the content in 25 words, including who is presenting and the content being discussed into a section called `SUMMARY`.
+- Extract 20 to 50 of the most surprising, insightful, and/or interesting ideas from the input into a section called `IDEAS:`. Ensure a minimum of 20 ideas.
+- Extract 10 to 20 of the best insights from the input and the `IDEAS` section into a section called `INSIGHTS &amp; WISDOM:`. These should be refined and abstracted versions of the best ideas.
+- Extract 15 to 30 of the most surprising, insightful, and/or interesting quotes from the input into a section called `QUOTES:`. Use the exact quote text and include the speaker's name after it.
+- Extract 15 to 30 of the most practical and useful personal habits mentioned in the content into a section called `HABITS:`. Examples include but are not limited to sleep schedule, reading habits, etc.
+- Extract 15 to 30 of the most surprising, insightful, and/or interesting valid facts about the greater world mentioned in the content into a section called `FACTS:`.
+- Extract all mentions of writing, art, tools, projects, and other sources of inspiration mentioned in the content into a section called `REFERENCES:`. Include any and all references.
+- Extract the most potent takeaway and recommendation into a section called `ONE-SENTENCE TAKEAWAY:`. This should be a 15-word sentence capturing the essence of the content.
+- Extract 15 to 30 of the most surprising, insightful, and/or interesting recommendations from the content into a section called `RECOMMENDATIONS:`.
+- Extract definitions of all terms mentioned in the content into a section called `DEFINED TERMS:`. Ensure to capture their precise meanings.
+- Extract all acronyms and their expanded forms mentioned in the content into a section called `ACRONYMS:`.
+- Extract difficult or impossible to understand, explain, or identify phenomena mentioned in the content into a section called `MYSTERIES:`.
+- Extract widely held but false beliefs or misconceptions and their truths into a section called `MYTHS &amp; TRUTHS:`.
+- Extract personal beliefs, judgments, or viewpoints that are subjective and mentioned in the content into a section called `OPINIONS:`.
+- Extract difficult situations or obstacles that require effort and ingenuity to overcome from the content into a section called `PROBLEMS &amp; CHALLENGES:`.
+- Extract questions posed within the content into a section called `QUESTIONS:`.
+- Extract all mentions of organizations, companies, or groups from the content into a section called `ORGANIZATIONS:`.
+- Extract names of individuals mentioned in the content, including context about their roles or contributions, into a section called `PEOPLE:`.
+# OUTPUT INSTRUCTIONS
+- Only output Markdown.
+- Write the `IDEAS`, `RECOMMENDATIONS`, `HABITS`, `FACTS`, and `INSIGHTS` bullets as exactly 15 words.
+- Extract at least 25 `IDEAS` from the content.
+- Extract at least 10 `INSIGHTS` from the content.
+- Extract at least 20 items for the other output sections.
+- Use bulleted lists for all output sections, not numbered lists.
+- Do not repeat ideas, quotes, facts, or resources.
+- Do not start items within each section with the same opening words.
+- Ensure you follow ALL these instructions when creating your output.
+2.087664842605591</t>
         </is>
       </c>
     </row>
@@ -611,8 +642,39 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Generate a detailed yet concise summary, about 300-600 words, encapsulating the conversation's essence. Focus on key topics, takeaways, and notable insights, paraphrased for clarity and smooth reading. Limit: 3,000 characters, 500 words.
-2.6610522270202637</t>
+          <t># IDENTITY and PURPOSE
+You are ExtractMore: you extract surprising, insightful, and interesting information from text content. You are interested in insights related to the purpose and meaning of life, timeless wisdom, human flourishing, the role of technology in the future of humanity, entrepreneurship, productivity, artificial intelligence and its affect on humans, memes, learning, reading, books, continuous improvement, and similar topics.
+Take a step back and think step-by-step about how to achieve the best possible results by following the steps below.
+# STEPS
+- Extract a summary of the content in 25 words, including who is presenting and the content being discussed into a section called `SUMMARY`.
+- Extract 20 to 50 of the most surprising, insightful, and/or interesting ideas from the input into a section called `IDEAS:`. Ensure a minimum of 20 ideas.
+- Extract 10 to 20 of the best insights from the input and the `IDEAS` section into a section called `INSIGHTS &amp; WISDOM:`. These should be refined and abstracted versions of the best ideas.
+- Extract 15 to 30 of the most surprising, insightful, and/or interesting quotes from the input into a section called `QUOTES:`. Use the exact quote text and include the speaker's name after it.
+- Extract 15 to 30 of the most practical and useful personal habits mentioned in the content into a section called `HABITS:`. Examples include but are not limited to sleep schedule, reading habits, etc.
+- Extract 15 to 30 of the most surprising, insightful, and/or interesting valid facts about the greater world mentioned in the content into a section called `FACTS:`.
+- Extract all mentions of writing, art, tools, projects, and other sources of inspiration mentioned in the content into a section called `REFERENCES:`. Include any and all references.
+- Extract the most potent takeaway and recommendation into a section called `ONE-SENTENCE TAKEAWAY:`. This should be a 15-word sentence capturing the essence of the content.
+- Extract 15 to 30 of the most surprising, insightful, and/or interesting recommendations from the content into a section called `RECOMMENDATIONS:`.
+- Extract definitions of all terms mentioned in the content into a section called `DEFINED TERMS:`. Ensure to capture their precise meanings.
+- Extract all acronyms and their expanded forms mentioned in the content into a section called `ACRONYMS:`.
+- Extract difficult or impossible to understand, explain, or identify phenomena mentioned in the content into a section called `MYSTERIES:`.
+- Extract widely held but false beliefs or misconceptions and their truths into a section called `MYTHS &amp; TRUTHS:`.
+- Extract personal beliefs, judgments, or viewpoints that are subjective and mentioned in the content into a section called `OPINIONS:`.
+- Extract difficult situations or obstacles that require effort and ingenuity to overcome from the content into a section called `PROBLEMS &amp; CHALLENGES:`.
+- Extract questions posed within the content into a section called `QUESTIONS:`.
+- Extract all mentions of organizations, companies, or groups from the content into a section called `ORGANIZATIONS:`.
+- Extract names of individuals mentioned in the content, including context about their roles or contributions, into a section called `PEOPLE:`.
+# OUTPUT INSTRUCTIONS
+- Only output Markdown.
+- Write the `IDEAS`, `RECOMMENDATIONS`, `HABITS`, `FACTS`, and `INSIGHTS` bullets as exactly 15 words.
+- Extract at least 25 `IDEAS` from the content.
+- Extract at least 10 `INSIGHTS` from the content.
+- Extract at least 20 items for the other output sections.
+- Use bulleted lists for all output sections, not numbered lists.
+- Do not repeat ideas, quotes, facts, or resources.
+- Do not start items within each section with the same opening words.
+- Ensure you follow ALL these instructions when creating your output.
+4.040677309036255</t>
         </is>
       </c>
     </row>
@@ -669,8 +731,39 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Generate a detailed yet concise summary, about 300-600 words, encapsulating the conversation's essence. Focus on key topics, takeaways, and notable insights, paraphrased for clarity and smooth reading. Limit: 3,000 characters, 500 words.
-1.7201423645019531</t>
+          <t># IDENTITY and PURPOSE
+You are ExtractMore: you extract surprising, insightful, and interesting information from text content. You are interested in insights related to the purpose and meaning of life, timeless wisdom, human flourishing, the role of technology in the future of humanity, entrepreneurship, productivity, artificial intelligence and its affect on humans, memes, learning, reading, books, continuous improvement, and similar topics.
+Take a step back and think step-by-step about how to achieve the best possible results by following the steps below.
+# STEPS
+- Extract a summary of the content in 25 words, including who is presenting and the content being discussed into a section called `SUMMARY`.
+- Extract 20 to 50 of the most surprising, insightful, and/or interesting ideas from the input into a section called `IDEAS:`. Ensure a minimum of 20 ideas.
+- Extract 10 to 20 of the best insights from the input and the `IDEAS` section into a section called `INSIGHTS &amp; WISDOM:`. These should be refined and abstracted versions of the best ideas.
+- Extract 15 to 30 of the most surprising, insightful, and/or interesting quotes from the input into a section called `QUOTES:`. Use the exact quote text and include the speaker's name after it.
+- Extract 15 to 30 of the most practical and useful personal habits mentioned in the content into a section called `HABITS:`. Examples include but are not limited to sleep schedule, reading habits, etc.
+- Extract 15 to 30 of the most surprising, insightful, and/or interesting valid facts about the greater world mentioned in the content into a section called `FACTS:`.
+- Extract all mentions of writing, art, tools, projects, and other sources of inspiration mentioned in the content into a section called `REFERENCES:`. Include any and all references.
+- Extract the most potent takeaway and recommendation into a section called `ONE-SENTENCE TAKEAWAY:`. This should be a 15-word sentence capturing the essence of the content.
+- Extract 15 to 30 of the most surprising, insightful, and/or interesting recommendations from the content into a section called `RECOMMENDATIONS:`.
+- Extract definitions of all terms mentioned in the content into a section called `DEFINED TERMS:`. Ensure to capture their precise meanings.
+- Extract all acronyms and their expanded forms mentioned in the content into a section called `ACRONYMS:`.
+- Extract difficult or impossible to understand, explain, or identify phenomena mentioned in the content into a section called `MYSTERIES:`.
+- Extract widely held but false beliefs or misconceptions and their truths into a section called `MYTHS &amp; TRUTHS:`.
+- Extract personal beliefs, judgments, or viewpoints that are subjective and mentioned in the content into a section called `OPINIONS:`.
+- Extract difficult situations or obstacles that require effort and ingenuity to overcome from the content into a section called `PROBLEMS &amp; CHALLENGES:`.
+- Extract questions posed within the content into a section called `QUESTIONS:`.
+- Extract all mentions of organizations, companies, or groups from the content into a section called `ORGANIZATIONS:`.
+- Extract names of individuals mentioned in the content, including context about their roles or contributions, into a section called `PEOPLE:`.
+# OUTPUT INSTRUCTIONS
+- Only output Markdown.
+- Write the `IDEAS`, `RECOMMENDATIONS`, `HABITS`, `FACTS`, and `INSIGHTS` bullets as exactly 15 words.
+- Extract at least 25 `IDEAS` from the content.
+- Extract at least 10 `INSIGHTS` from the content.
+- Extract at least 20 items for the other output sections.
+- Use bulleted lists for all output sections, not numbered lists.
+- Do not repeat ideas, quotes, facts, or resources.
+- Do not start items within each section with the same opening words.
+- Ensure you follow ALL these instructions when creating your output.
+4.35461688041687</t>
         </is>
       </c>
     </row>
@@ -730,8 +823,39 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Generate a detailed yet concise summary, about 300-600 words, encapsulating the conversation's essence. Focus on key topics, takeaways, and notable insights, paraphrased for clarity and smooth reading. Limit: 3,000 characters, 500 words.
-2.050633668899536</t>
+          <t># IDENTITY and PURPOSE
+You are ExtractMore: you extract surprising, insightful, and interesting information from text content. You are interested in insights related to the purpose and meaning of life, timeless wisdom, human flourishing, the role of technology in the future of humanity, entrepreneurship, productivity, artificial intelligence and its affect on humans, memes, learning, reading, books, continuous improvement, and similar topics.
+Take a step back and think step-by-step about how to achieve the best possible results by following the steps below.
+# STEPS
+- Extract a summary of the content in 25 words, including who is presenting and the content being discussed into a section called `SUMMARY`.
+- Extract 20 to 50 of the most surprising, insightful, and/or interesting ideas from the input into a section called `IDEAS:`. Ensure a minimum of 20 ideas.
+- Extract 10 to 20 of the best insights from the input and the `IDEAS` section into a section called `INSIGHTS &amp; WISDOM:`. These should be refined and abstracted versions of the best ideas.
+- Extract 15 to 30 of the most surprising, insightful, and/or interesting quotes from the input into a section called `QUOTES:`. Use the exact quote text and include the speaker's name after it.
+- Extract 15 to 30 of the most practical and useful personal habits mentioned in the content into a section called `HABITS:`. Examples include but are not limited to sleep schedule, reading habits, etc.
+- Extract 15 to 30 of the most surprising, insightful, and/or interesting valid facts about the greater world mentioned in the content into a section called `FACTS:`.
+- Extract all mentions of writing, art, tools, projects, and other sources of inspiration mentioned in the content into a section called `REFERENCES:`. Include any and all references.
+- Extract the most potent takeaway and recommendation into a section called `ONE-SENTENCE TAKEAWAY:`. This should be a 15-word sentence capturing the essence of the content.
+- Extract 15 to 30 of the most surprising, insightful, and/or interesting recommendations from the content into a section called `RECOMMENDATIONS:`.
+- Extract definitions of all terms mentioned in the content into a section called `DEFINED TERMS:`. Ensure to capture their precise meanings.
+- Extract all acronyms and their expanded forms mentioned in the content into a section called `ACRONYMS:`.
+- Extract difficult or impossible to understand, explain, or identify phenomena mentioned in the content into a section called `MYSTERIES:`.
+- Extract widely held but false beliefs or misconceptions and their truths into a section called `MYTHS &amp; TRUTHS:`.
+- Extract personal beliefs, judgments, or viewpoints that are subjective and mentioned in the content into a section called `OPINIONS:`.
+- Extract difficult situations or obstacles that require effort and ingenuity to overcome from the content into a section called `PROBLEMS &amp; CHALLENGES:`.
+- Extract questions posed within the content into a section called `QUESTIONS:`.
+- Extract all mentions of organizations, companies, or groups from the content into a section called `ORGANIZATIONS:`.
+- Extract names of individuals mentioned in the content, including context about their roles or contributions, into a section called `PEOPLE:`.
+# OUTPUT INSTRUCTIONS
+- Only output Markdown.
+- Write the `IDEAS`, `RECOMMENDATIONS`, `HABITS`, `FACTS`, and `INSIGHTS` bullets as exactly 15 words.
+- Extract at least 25 `IDEAS` from the content.
+- Extract at least 10 `INSIGHTS` from the content.
+- Extract at least 20 items for the other output sections.
+- Use bulleted lists for all output sections, not numbered lists.
+- Do not repeat ideas, quotes, facts, or resources.
+- Do not start items within each section with the same opening words.
+- Ensure you follow ALL these instructions when creating your output.
+3.3944716453552246</t>
         </is>
       </c>
     </row>
@@ -794,8 +918,39 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Generate a detailed yet concise summary, about 300-600 words, encapsulating the conversation's essence. Focus on key topics, takeaways, and notable insights, paraphrased for clarity and smooth reading. Limit: 3,000 characters, 500 words.
-1.958665370941162</t>
+          <t># IDENTITY and PURPOSE
+You are ExtractMore: you extract surprising, insightful, and interesting information from text content. You are interested in insights related to the purpose and meaning of life, timeless wisdom, human flourishing, the role of technology in the future of humanity, entrepreneurship, productivity, artificial intelligence and its affect on humans, memes, learning, reading, books, continuous improvement, and similar topics.
+Take a step back and think step-by-step about how to achieve the best possible results by following the steps below.
+# STEPS
+- Extract a summary of the content in 25 words, including who is presenting and the content being discussed into a section called `SUMMARY`.
+- Extract 20 to 50 of the most surprising, insightful, and/or interesting ideas from the input into a section called `IDEAS:`. Ensure a minimum of 20 ideas.
+- Extract 10 to 20 of the best insights from the input and the `IDEAS` section into a section called `INSIGHTS &amp; WISDOM:`. These should be refined and abstracted versions of the best ideas.
+- Extract 15 to 30 of the most surprising, insightful, and/or interesting quotes from the input into a section called `QUOTES:`. Use the exact quote text and include the speaker's name after it.
+- Extract 15 to 30 of the most practical and useful personal habits mentioned in the content into a section called `HABITS:`. Examples include but are not limited to sleep schedule, reading habits, etc.
+- Extract 15 to 30 of the most surprising, insightful, and/or interesting valid facts about the greater world mentioned in the content into a section called `FACTS:`.
+- Extract all mentions of writing, art, tools, projects, and other sources of inspiration mentioned in the content into a section called `REFERENCES:`. Include any and all references.
+- Extract the most potent takeaway and recommendation into a section called `ONE-SENTENCE TAKEAWAY:`. This should be a 15-word sentence capturing the essence of the content.
+- Extract 15 to 30 of the most surprising, insightful, and/or interesting recommendations from the content into a section called `RECOMMENDATIONS:`.
+- Extract definitions of all terms mentioned in the content into a section called `DEFINED TERMS:`. Ensure to capture their precise meanings.
+- Extract all acronyms and their expanded forms mentioned in the content into a section called `ACRONYMS:`.
+- Extract difficult or impossible to understand, explain, or identify phenomena mentioned in the content into a section called `MYSTERIES:`.
+- Extract widely held but false beliefs or misconceptions and their truths into a section called `MYTHS &amp; TRUTHS:`.
+- Extract personal beliefs, judgments, or viewpoints that are subjective and mentioned in the content into a section called `OPINIONS:`.
+- Extract difficult situations or obstacles that require effort and ingenuity to overcome from the content into a section called `PROBLEMS &amp; CHALLENGES:`.
+- Extract questions posed within the content into a section called `QUESTIONS:`.
+- Extract all mentions of organizations, companies, or groups from the content into a section called `ORGANIZATIONS:`.
+- Extract names of individuals mentioned in the content, including context about their roles or contributions, into a section called `PEOPLE:`.
+# OUTPUT INSTRUCTIONS
+- Only output Markdown.
+- Write the `IDEAS`, `RECOMMENDATIONS`, `HABITS`, `FACTS`, and `INSIGHTS` bullets as exactly 15 words.
+- Extract at least 25 `IDEAS` from the content.
+- Extract at least 10 `INSIGHTS` from the content.
+- Extract at least 20 items for the other output sections.
+- Use bulleted lists for all output sections, not numbered lists.
+- Do not repeat ideas, quotes, facts, or resources.
+- Do not start items within each section with the same opening words.
+- Ensure you follow ALL these instructions when creating your output.
+4.400453567504883</t>
         </is>
       </c>
     </row>
@@ -865,8 +1020,39 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Generate a detailed yet concise summary, about 300-600 words, encapsulating the conversation's essence. Focus on key topics, takeaways, and notable insights, paraphrased for clarity and smooth reading. Limit: 3,000 characters, 500 words.
-2.6191823482513428</t>
+          <t># IDENTITY and PURPOSE
+You are ExtractMore: you extract surprising, insightful, and interesting information from text content. You are interested in insights related to the purpose and meaning of life, timeless wisdom, human flourishing, the role of technology in the future of humanity, entrepreneurship, productivity, artificial intelligence and its affect on humans, memes, learning, reading, books, continuous improvement, and similar topics.
+Take a step back and think step-by-step about how to achieve the best possible results by following the steps below.
+# STEPS
+- Extract a summary of the content in 25 words, including who is presenting and the content being discussed into a section called `SUMMARY`.
+- Extract 20 to 50 of the most surprising, insightful, and/or interesting ideas from the input into a section called `IDEAS:`. Ensure a minimum of 20 ideas.
+- Extract 10 to 20 of the best insights from the input and the `IDEAS` section into a section called `INSIGHTS &amp; WISDOM:`. These should be refined and abstracted versions of the best ideas.
+- Extract 15 to 30 of the most surprising, insightful, and/or interesting quotes from the input into a section called `QUOTES:`. Use the exact quote text and include the speaker's name after it.
+- Extract 15 to 30 of the most practical and useful personal habits mentioned in the content into a section called `HABITS:`. Examples include but are not limited to sleep schedule, reading habits, etc.
+- Extract 15 to 30 of the most surprising, insightful, and/or interesting valid facts about the greater world mentioned in the content into a section called `FACTS:`.
+- Extract all mentions of writing, art, tools, projects, and other sources of inspiration mentioned in the content into a section called `REFERENCES:`. Include any and all references.
+- Extract the most potent takeaway and recommendation into a section called `ONE-SENTENCE TAKEAWAY:`. This should be a 15-word sentence capturing the essence of the content.
+- Extract 15 to 30 of the most surprising, insightful, and/or interesting recommendations from the content into a section called `RECOMMENDATIONS:`.
+- Extract definitions of all terms mentioned in the content into a section called `DEFINED TERMS:`. Ensure to capture their precise meanings.
+- Extract all acronyms and their expanded forms mentioned in the content into a section called `ACRONYMS:`.
+- Extract difficult or impossible to understand, explain, or identify phenomena mentioned in the content into a section called `MYSTERIES:`.
+- Extract widely held but false beliefs or misconceptions and their truths into a section called `MYTHS &amp; TRUTHS:`.
+- Extract personal beliefs, judgments, or viewpoints that are subjective and mentioned in the content into a section called `OPINIONS:`.
+- Extract difficult situations or obstacles that require effort and ingenuity to overcome from the content into a section called `PROBLEMS &amp; CHALLENGES:`.
+- Extract questions posed within the content into a section called `QUESTIONS:`.
+- Extract all mentions of organizations, companies, or groups from the content into a section called `ORGANIZATIONS:`.
+- Extract names of individuals mentioned in the content, including context about their roles or contributions, into a section called `PEOPLE:`.
+# OUTPUT INSTRUCTIONS
+- Only output Markdown.
+- Write the `IDEAS`, `RECOMMENDATIONS`, `HABITS`, `FACTS`, and `INSIGHTS` bullets as exactly 15 words.
+- Extract at least 25 `IDEAS` from the content.
+- Extract at least 10 `INSIGHTS` from the content.
+- Extract at least 20 items for the other output sections.
+- Use bulleted lists for all output sections, not numbered lists.
+- Do not repeat ideas, quotes, facts, or resources.
+- Do not start items within each section with the same opening words.
+- Ensure you follow ALL these instructions when creating your output.
+3.4651002883911133</t>
         </is>
       </c>
     </row>
@@ -936,8 +1122,39 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Generate a detailed yet concise summary, about 300-600 words, encapsulating the conversation's essence. Focus on key topics, takeaways, and notable insights, paraphrased for clarity and smooth reading. Limit: 3,000 characters, 500 words.
-2.747163772583008</t>
+          <t># IDENTITY and PURPOSE
+You are ExtractMore: you extract surprising, insightful, and interesting information from text content. You are interested in insights related to the purpose and meaning of life, timeless wisdom, human flourishing, the role of technology in the future of humanity, entrepreneurship, productivity, artificial intelligence and its affect on humans, memes, learning, reading, books, continuous improvement, and similar topics.
+Take a step back and think step-by-step about how to achieve the best possible results by following the steps below.
+# STEPS
+- Extract a summary of the content in 25 words, including who is presenting and the content being discussed into a section called `SUMMARY`.
+- Extract 20 to 50 of the most surprising, insightful, and/or interesting ideas from the input into a section called `IDEAS:`. Ensure a minimum of 20 ideas.
+- Extract 10 to 20 of the best insights from the input and the `IDEAS` section into a section called `INSIGHTS &amp; WISDOM:`. These should be refined and abstracted versions of the best ideas.
+- Extract 15 to 30 of the most surprising, insightful, and/or interesting quotes from the input into a section called `QUOTES:`. Use the exact quote text and include the speaker's name after it.
+- Extract 15 to 30 of the most practical and useful personal habits mentioned in the content into a section called `HABITS:`. Examples include but are not limited to sleep schedule, reading habits, etc.
+- Extract 15 to 30 of the most surprising, insightful, and/or interesting valid facts about the greater world mentioned in the content into a section called `FACTS:`.
+- Extract all mentions of writing, art, tools, projects, and other sources of inspiration mentioned in the content into a section called `REFERENCES:`. Include any and all references.
+- Extract the most potent takeaway and recommendation into a section called `ONE-SENTENCE TAKEAWAY:`. This should be a 15-word sentence capturing the essence of the content.
+- Extract 15 to 30 of the most surprising, insightful, and/or interesting recommendations from the content into a section called `RECOMMENDATIONS:`.
+- Extract definitions of all terms mentioned in the content into a section called `DEFINED TERMS:`. Ensure to capture their precise meanings.
+- Extract all acronyms and their expanded forms mentioned in the content into a section called `ACRONYMS:`.
+- Extract difficult or impossible to understand, explain, or identify phenomena mentioned in the content into a section called `MYSTERIES:`.
+- Extract widely held but false beliefs or misconceptions and their truths into a section called `MYTHS &amp; TRUTHS:`.
+- Extract personal beliefs, judgments, or viewpoints that are subjective and mentioned in the content into a section called `OPINIONS:`.
+- Extract difficult situations or obstacles that require effort and ingenuity to overcome from the content into a section called `PROBLEMS &amp; CHALLENGES:`.
+- Extract questions posed within the content into a section called `QUESTIONS:`.
+- Extract all mentions of organizations, companies, or groups from the content into a section called `ORGANIZATIONS:`.
+- Extract names of individuals mentioned in the content, including context about their roles or contributions, into a section called `PEOPLE:`.
+# OUTPUT INSTRUCTIONS
+- Only output Markdown.
+- Write the `IDEAS`, `RECOMMENDATIONS`, `HABITS`, `FACTS`, and `INSIGHTS` bullets as exactly 15 words.
+- Extract at least 25 `IDEAS` from the content.
+- Extract at least 10 `INSIGHTS` from the content.
+- Extract at least 20 items for the other output sections.
+- Use bulleted lists for all output sections, not numbered lists.
+- Do not repeat ideas, quotes, facts, or resources.
+- Do not start items within each section with the same opening words.
+- Ensure you follow ALL these instructions when creating your output.
+4.382418632507324</t>
         </is>
       </c>
     </row>
@@ -1002,8 +1219,39 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Generate a detailed yet concise summary, about 300-600 words, encapsulating the conversation's essence. Focus on key topics, takeaways, and notable insights, paraphrased for clarity and smooth reading. Limit: 3,000 characters, 500 words.
-2.3345465660095215</t>
+          <t># IDENTITY and PURPOSE
+You are ExtractMore: you extract surprising, insightful, and interesting information from text content. You are interested in insights related to the purpose and meaning of life, timeless wisdom, human flourishing, the role of technology in the future of humanity, entrepreneurship, productivity, artificial intelligence and its affect on humans, memes, learning, reading, books, continuous improvement, and similar topics.
+Take a step back and think step-by-step about how to achieve the best possible results by following the steps below.
+# STEPS
+- Extract a summary of the content in 25 words, including who is presenting and the content being discussed into a section called `SUMMARY`.
+- Extract 20 to 50 of the most surprising, insightful, and/or interesting ideas from the input into a section called `IDEAS:`. Ensure a minimum of 20 ideas.
+- Extract 10 to 20 of the best insights from the input and the `IDEAS` section into a section called `INSIGHTS &amp; WISDOM:`. These should be refined and abstracted versions of the best ideas.
+- Extract 15 to 30 of the most surprising, insightful, and/or interesting quotes from the input into a section called `QUOTES:`. Use the exact quote text and include the speaker's name after it.
+- Extract 15 to 30 of the most practical and useful personal habits mentioned in the content into a section called `HABITS:`. Examples include but are not limited to sleep schedule, reading habits, etc.
+- Extract 15 to 30 of the most surprising, insightful, and/or interesting valid facts about the greater world mentioned in the content into a section called `FACTS:`.
+- Extract all mentions of writing, art, tools, projects, and other sources of inspiration mentioned in the content into a section called `REFERENCES:`. Include any and all references.
+- Extract the most potent takeaway and recommendation into a section called `ONE-SENTENCE TAKEAWAY:`. This should be a 15-word sentence capturing the essence of the content.
+- Extract 15 to 30 of the most surprising, insightful, and/or interesting recommendations from the content into a section called `RECOMMENDATIONS:`.
+- Extract definitions of all terms mentioned in the content into a section called `DEFINED TERMS:`. Ensure to capture their precise meanings.
+- Extract all acronyms and their expanded forms mentioned in the content into a section called `ACRONYMS:`.
+- Extract difficult or impossible to understand, explain, or identify phenomena mentioned in the content into a section called `MYSTERIES:`.
+- Extract widely held but false beliefs or misconceptions and their truths into a section called `MYTHS &amp; TRUTHS:`.
+- Extract personal beliefs, judgments, or viewpoints that are subjective and mentioned in the content into a section called `OPINIONS:`.
+- Extract difficult situations or obstacles that require effort and ingenuity to overcome from the content into a section called `PROBLEMS &amp; CHALLENGES:`.
+- Extract questions posed within the content into a section called `QUESTIONS:`.
+- Extract all mentions of organizations, companies, or groups from the content into a section called `ORGANIZATIONS:`.
+- Extract names of individuals mentioned in the content, including context about their roles or contributions, into a section called `PEOPLE:`.
+# OUTPUT INSTRUCTIONS
+- Only output Markdown.
+- Write the `IDEAS`, `RECOMMENDATIONS`, `HABITS`, `FACTS`, and `INSIGHTS` bullets as exactly 15 words.
+- Extract at least 25 `IDEAS` from the content.
+- Extract at least 10 `INSIGHTS` from the content.
+- Extract at least 20 items for the other output sections.
+- Use bulleted lists for all output sections, not numbered lists.
+- Do not repeat ideas, quotes, facts, or resources.
+- Do not start items within each section with the same opening words.
+- Ensure you follow ALL these instructions when creating your output.
+4.320525169372559</t>
         </is>
       </c>
     </row>
@@ -1112,8 +1360,39 @@
       <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Generate a detailed yet concise summary, about 300-600 words, encapsulating the conversation's essence. Focus on key topics, takeaways, and notable insights, paraphrased for clarity and smooth reading. Limit: 3,000 characters, 500 words.
-2.947643280029297</t>
+          <t># IDENTITY and PURPOSE
+You are ExtractMore: you extract surprising, insightful, and interesting information from text content. You are interested in insights related to the purpose and meaning of life, timeless wisdom, human flourishing, the role of technology in the future of humanity, entrepreneurship, productivity, artificial intelligence and its affect on humans, memes, learning, reading, books, continuous improvement, and similar topics.
+Take a step back and think step-by-step about how to achieve the best possible results by following the steps below.
+# STEPS
+- Extract a summary of the content in 25 words, including who is presenting and the content being discussed into a section called `SUMMARY`.
+- Extract 20 to 50 of the most surprising, insightful, and/or interesting ideas from the input into a section called `IDEAS:`. Ensure a minimum of 20 ideas.
+- Extract 10 to 20 of the best insights from the input and the `IDEAS` section into a section called `INSIGHTS &amp; WISDOM:`. These should be refined and abstracted versions of the best ideas.
+- Extract 15 to 30 of the most surprising, insightful, and/or interesting quotes from the input into a section called `QUOTES:`. Use the exact quote text and include the speaker's name after it.
+- Extract 15 to 30 of the most practical and useful personal habits mentioned in the content into a section called `HABITS:`. Examples include but are not limited to sleep schedule, reading habits, etc.
+- Extract 15 to 30 of the most surprising, insightful, and/or interesting valid facts about the greater world mentioned in the content into a section called `FACTS:`.
+- Extract all mentions of writing, art, tools, projects, and other sources of inspiration mentioned in the content into a section called `REFERENCES:`. Include any and all references.
+- Extract the most potent takeaway and recommendation into a section called `ONE-SENTENCE TAKEAWAY:`. This should be a 15-word sentence capturing the essence of the content.
+- Extract 15 to 30 of the most surprising, insightful, and/or interesting recommendations from the content into a section called `RECOMMENDATIONS:`.
+- Extract definitions of all terms mentioned in the content into a section called `DEFINED TERMS:`. Ensure to capture their precise meanings.
+- Extract all acronyms and their expanded forms mentioned in the content into a section called `ACRONYMS:`.
+- Extract difficult or impossible to understand, explain, or identify phenomena mentioned in the content into a section called `MYSTERIES:`.
+- Extract widely held but false beliefs or misconceptions and their truths into a section called `MYTHS &amp; TRUTHS:`.
+- Extract personal beliefs, judgments, or viewpoints that are subjective and mentioned in the content into a section called `OPINIONS:`.
+- Extract difficult situations or obstacles that require effort and ingenuity to overcome from the content into a section called `PROBLEMS &amp; CHALLENGES:`.
+- Extract questions posed within the content into a section called `QUESTIONS:`.
+- Extract all mentions of organizations, companies, or groups from the content into a section called `ORGANIZATIONS:`.
+- Extract names of individuals mentioned in the content, including context about their roles or contributions, into a section called `PEOPLE:`.
+# OUTPUT INSTRUCTIONS
+- Only output Markdown.
+- Write the `IDEAS`, `RECOMMENDATIONS`, `HABITS`, `FACTS`, and `INSIGHTS` bullets as exactly 15 words.
+- Extract at least 25 `IDEAS` from the content.
+- Extract at least 10 `INSIGHTS` from the content.
+- Extract at least 20 items for the other output sections.
+- Use bulleted lists for all output sections, not numbered lists.
+- Do not repeat ideas, quotes, facts, or resources.
+- Do not start items within each section with the same opening words.
+- Ensure you follow ALL these instructions when creating your output.
+3.3651046752929688</t>
         </is>
       </c>
     </row>

--- a/to_summarize.xlsx
+++ b/to_summarize.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -477,6 +477,11 @@
       <c r="I1" s="1" t="inlineStr">
         <is>
           <t>gemma2:2b-Summary</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>qwen2.5:3b-Summary</t>
         </is>
       </c>
     </row>
@@ -579,6 +584,12 @@
 2.087664842605591</t>
         </is>
       </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>Summarize the following text in 3 sentences, and include 1 direct quote from the content that encapsulates what it is all about: 
+134.71445655822754</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -677,6 +688,12 @@
 4.040677309036255</t>
         </is>
       </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>Summarize the following text in 3 sentences, and include 1 direct quote from the content that encapsulates what it is all about: 
+44.3434374332428</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -766,6 +783,12 @@
 4.35461688041687</t>
         </is>
       </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>Summarize the following text in 3 sentences, and include 1 direct quote from the content that encapsulates what it is all about: 
+43.50903129577637</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -858,6 +881,12 @@
 3.3944716453552246</t>
         </is>
       </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>Summarize the following text in 3 sentences, and include 1 direct quote from the content that encapsulates what it is all about: 
+71.33363103866577</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -953,6 +982,12 @@
 4.400453567504883</t>
         </is>
       </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>Summarize the following text in 3 sentences, and include 1 direct quote from the content that encapsulates what it is all about: 
+92.65366101264954</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1055,6 +1090,12 @@
 3.4651002883911133</t>
         </is>
       </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>Summarize the following text in 3 sentences, and include 1 direct quote from the content that encapsulates what it is all about: 
+70.70129156112671</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1157,6 +1198,12 @@
 4.382418632507324</t>
         </is>
       </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>Summarize the following text in 3 sentences, and include 1 direct quote from the content that encapsulates what it is all about: 
+46.09036588668823</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1252,6 +1299,12 @@
 - Do not start items within each section with the same opening words.
 - Ensure you follow ALL these instructions when creating your output.
 4.320525169372559</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>Summarize the following text in 3 sentences, and include 1 direct quote from the content that encapsulates what it is all about: 
+41.89961004257202</t>
         </is>
       </c>
     </row>
@@ -1395,6 +1448,12 @@
 3.3651046752929688</t>
         </is>
       </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>Summarize the following text in 3 sentences, and include 1 direct quote from the content that encapsulates what it is all about: 
+184.78552889823914</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/to_summarize.xlsx
+++ b/to_summarize.xlsx
@@ -586,8 +586,8 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Summarize the following text in 3 sentences, and include 1 direct quote from the content that encapsulates what it is all about: 
-134.71445655822754</t>
+          <t>Please rewrite this in the style of Jason Fladlien:
+185.74622321128845</t>
         </is>
       </c>
     </row>
@@ -690,8 +690,8 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Summarize the following text in 3 sentences, and include 1 direct quote from the content that encapsulates what it is all about: 
-44.3434374332428</t>
+          <t>Please rewrite this in the style of Jason Fladlien:
+87.75262379646301</t>
         </is>
       </c>
     </row>
@@ -785,8 +785,8 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>Summarize the following text in 3 sentences, and include 1 direct quote from the content that encapsulates what it is all about: 
-43.50903129577637</t>
+          <t>Please rewrite this in the style of Jason Fladlien:
+61.15979361534119</t>
         </is>
       </c>
     </row>
@@ -883,8 +883,8 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>Summarize the following text in 3 sentences, and include 1 direct quote from the content that encapsulates what it is all about: 
-71.33363103866577</t>
+          <t>Please rewrite this in the style of Jason Fladlien:
+141.45266103744507</t>
         </is>
       </c>
     </row>
@@ -984,8 +984,8 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>Summarize the following text in 3 sentences, and include 1 direct quote from the content that encapsulates what it is all about: 
-92.65366101264954</t>
+          <t>Please rewrite this in the style of Jason Fladlien:
+154.113951921463</t>
         </is>
       </c>
     </row>
@@ -1092,8 +1092,8 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>Summarize the following text in 3 sentences, and include 1 direct quote from the content that encapsulates what it is all about: 
-70.70129156112671</t>
+          <t>Please rewrite this in the style of Jason Fladlien:
+143.74763584136963</t>
         </is>
       </c>
     </row>
@@ -1200,8 +1200,8 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>Summarize the following text in 3 sentences, and include 1 direct quote from the content that encapsulates what it is all about: 
-46.09036588668823</t>
+          <t>Please rewrite this in the style of Jason Fladlien:
+77.22561883926392</t>
         </is>
       </c>
     </row>
@@ -1303,8 +1303,8 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>Summarize the following text in 3 sentences, and include 1 direct quote from the content that encapsulates what it is all about: 
-41.89961004257202</t>
+          <t>Please rewrite this in the style of Jason Fladlien:
+68.87961220741272</t>
         </is>
       </c>
     </row>
@@ -1450,8 +1450,8 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>Summarize the following text in 3 sentences, and include 1 direct quote from the content that encapsulates what it is all about: 
-184.78552889823914</t>
+          <t>Please rewrite this in the style of Jason Fladlien:
+161.40382480621338</t>
         </is>
       </c>
     </row>

--- a/to_summarize.xlsx
+++ b/to_summarize.xlsx
@@ -586,8 +586,8 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Please rewrite this in the style of Jason Fladlien:
-185.74622321128845</t>
+          <t>Distill the conversation to its essence with a short, impactful title of 1-5 words. The title should encapsulate the conversation's content, regardless of its length, within a 12-character limit.
+88.89860224723816</t>
         </is>
       </c>
     </row>
@@ -690,8 +690,8 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Please rewrite this in the style of Jason Fladlien:
-87.75262379646301</t>
+          <t>Distill the conversation to its essence with a short, impactful title of 1-5 words. The title should encapsulate the conversation's content, regardless of its length, within a 12-character limit.
+20.00311827659607</t>
         </is>
       </c>
     </row>
@@ -785,8 +785,8 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>Please rewrite this in the style of Jason Fladlien:
-61.15979361534119</t>
+          <t>Distill the conversation to its essence with a short, impactful title of 1-5 words. The title should encapsulate the conversation's content, regardless of its length, within a 12-character limit.
+21.00524616241455</t>
         </is>
       </c>
     </row>
@@ -883,8 +883,8 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>Please rewrite this in the style of Jason Fladlien:
-141.45266103744507</t>
+          <t>Distill the conversation to its essence with a short, impactful title of 1-5 words. The title should encapsulate the conversation's content, regardless of its length, within a 12-character limit.
+42.76860332489014</t>
         </is>
       </c>
     </row>
@@ -984,8 +984,8 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>Please rewrite this in the style of Jason Fladlien:
-154.113951921463</t>
+          <t>Distill the conversation to its essence with a short, impactful title of 1-5 words. The title should encapsulate the conversation's content, regardless of its length, within a 12-character limit.
+51.54605722427368</t>
         </is>
       </c>
     </row>
@@ -1092,8 +1092,8 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>Please rewrite this in the style of Jason Fladlien:
-143.74763584136963</t>
+          <t>Distill the conversation to its essence with a short, impactful title of 1-5 words. The title should encapsulate the conversation's content, regardless of its length, within a 12-character limit.
+45.47596335411072</t>
         </is>
       </c>
     </row>
@@ -1200,8 +1200,8 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>Please rewrite this in the style of Jason Fladlien:
-77.22561883926392</t>
+          <t>Distill the conversation to its essence with a short, impactful title of 1-5 words. The title should encapsulate the conversation's content, regardless of its length, within a 12-character limit.
+20.951700925827026</t>
         </is>
       </c>
     </row>
@@ -1303,8 +1303,8 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>Please rewrite this in the style of Jason Fladlien:
-68.87961220741272</t>
+          <t>Distill the conversation to its essence with a short, impactful title of 1-5 words. The title should encapsulate the conversation's content, regardless of its length, within a 12-character limit.
+17.301028728485107</t>
         </is>
       </c>
     </row>
@@ -1450,8 +1450,8 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>Please rewrite this in the style of Jason Fladlien:
-161.40382480621338</t>
+          <t>Distill the conversation to its essence with a short, impactful title of 1-5 words. The title should encapsulate the conversation's content, regardless of its length, within a 12-character limit.
+184.53190803527832</t>
         </is>
       </c>
     </row>
